--- a/BackTest/2019-10-17 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-17 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-16.66666666666637</v>
+      </c>
       <c r="L12" t="n">
         <v>41.75</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-40.00000000000014</v>
+      </c>
       <c r="L13" t="n">
         <v>41.73</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571458</v>
+      </c>
       <c r="L14" t="n">
         <v>41.68</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.599999999999994</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>24.99999999999978</v>
+      </c>
       <c r="L15" t="n">
         <v>41.69</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>41.68</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-25.00000000000089</v>
+      </c>
       <c r="L17" t="n">
         <v>41.68</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.399999999999991</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-53.84615384615478</v>
+      </c>
       <c r="L18" t="n">
         <v>41.61</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.599999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-42.85714285714271</v>
+      </c>
       <c r="L19" t="n">
         <v>41.56</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.599999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-42.85714285714271</v>
+      </c>
       <c r="L20" t="n">
         <v>41.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.599999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-38.46153846153855</v>
+      </c>
       <c r="L21" t="n">
         <v>41.44</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.29999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.999999999999822</v>
+      </c>
       <c r="L22" t="n">
         <v>41.45999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.29999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L23" t="n">
         <v>41.48</v>
@@ -1466,7 +1488,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-20.00000000000016</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L24" t="n">
         <v>41.45999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K25" t="n">
-        <v>2.857142857142707</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L25" t="n">
         <v>41.45999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K26" t="n">
-        <v>5.882352941176372</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L26" t="n">
         <v>41.48999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>4.599999999999987</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.702702702702755</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L27" t="n">
         <v>41.47999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>5.199999999999989</v>
       </c>
       <c r="K28" t="n">
-        <v>7.317073170731674</v>
+        <v>30.76923076923073</v>
       </c>
       <c r="L28" t="n">
         <v>41.57999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K29" t="n">
-        <v>2.325581395348714</v>
+        <v>21.42857142857125</v>
       </c>
       <c r="L29" t="n">
         <v>41.63999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>21.42857142857125</v>
       </c>
       <c r="L30" t="n">
         <v>41.7</v>
@@ -1809,7 +1831,7 @@
         <v>5.999999999999986</v>
       </c>
       <c r="K31" t="n">
-        <v>-12.49999999999993</v>
+        <v>-25.92592592592581</v>
       </c>
       <c r="L31" t="n">
         <v>41.7</v>
@@ -1860,7 +1882,7 @@
         <v>5.999999999999986</v>
       </c>
       <c r="K32" t="n">
-        <v>-10.63829787234045</v>
+        <v>-25.92592592592581</v>
       </c>
       <c r="L32" t="n">
         <v>41.63</v>
@@ -1911,7 +1933,7 @@
         <v>6.09999999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>-8.333333333333481</v>
+        <v>-4.347826086956602</v>
       </c>
       <c r="L33" t="n">
         <v>41.57</v>
@@ -1962,7 +1984,7 @@
         <v>6.199999999999974</v>
       </c>
       <c r="K34" t="n">
-        <v>-8.333333333333345</v>
+        <v>-29.99999999999993</v>
       </c>
       <c r="L34" t="n">
         <v>41.55</v>
@@ -2064,7 +2086,7 @@
         <v>6.999999999999964</v>
       </c>
       <c r="K36" t="n">
-        <v>1.960784313725528</v>
+        <v>8.333333333333531</v>
       </c>
       <c r="L36" t="n">
         <v>41.53</v>
@@ -2115,7 +2137,7 @@
         <v>7.099999999999966</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L37" t="n">
         <v>41.54000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>7.199999999999967</v>
       </c>
       <c r="K38" t="n">
-        <v>12.50000000000009</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L38" t="n">
         <v>41.50000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>7.299999999999969</v>
       </c>
       <c r="K39" t="n">
-        <v>6.382978723404229</v>
+        <v>-15.78947368421056</v>
       </c>
       <c r="L39" t="n">
         <v>41.47000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>7.299999999999969</v>
       </c>
       <c r="K40" t="n">
-        <v>6.382978723404229</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L40" t="n">
         <v>41.44</v>
@@ -2319,7 +2341,7 @@
         <v>7.499999999999972</v>
       </c>
       <c r="K41" t="n">
-        <v>2.040816326530506</v>
+        <v>6.666666666666352</v>
       </c>
       <c r="L41" t="n">
         <v>41.45</v>
@@ -2370,7 +2392,7 @@
         <v>7.499999999999972</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.28571428571438</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>41.46000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>7.599999999999966</v>
       </c>
       <c r="K43" t="n">
-        <v>-16.27906976744185</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>41.45</v>
@@ -2472,7 +2494,7 @@
         <v>7.599999999999966</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.263157894736763</v>
+        <v>-74.99999999999956</v>
       </c>
       <c r="L44" t="n">
         <v>41.45</v>
@@ -2523,7 +2545,7 @@
         <v>7.599999999999966</v>
       </c>
       <c r="K45" t="n">
-        <v>-17.64705882352936</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L45" t="n">
         <v>41.39</v>
@@ -2574,7 +2596,7 @@
         <v>7.799999999999962</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.11111111111116</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L46" t="n">
         <v>41.37</v>
@@ -2625,7 +2647,7 @@
         <v>8.299999999999962</v>
       </c>
       <c r="K47" t="n">
-        <v>13.51351351351361</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L47" t="n">
         <v>41.41</v>
@@ -2676,7 +2698,7 @@
         <v>8.399999999999963</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L48" t="n">
         <v>41.45</v>
@@ -2727,7 +2749,7 @@
         <v>8.399999999999963</v>
       </c>
       <c r="K49" t="n">
-        <v>6.666666666666825</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L49" t="n">
         <v>41.49999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>8.899999999999963</v>
       </c>
       <c r="K50" t="n">
-        <v>-8.571428571428561</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L50" t="n">
         <v>41.49999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>8.899999999999963</v>
       </c>
       <c r="K51" t="n">
-        <v>10.34482758620688</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L51" t="n">
         <v>41.52</v>
@@ -2880,7 +2902,7 @@
         <v>9.399999999999963</v>
       </c>
       <c r="K52" t="n">
-        <v>23.52941176470596</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L52" t="n">
         <v>41.58999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>9.399999999999963</v>
       </c>
       <c r="K53" t="n">
-        <v>21.21212121212141</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L53" t="n">
         <v>41.66999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>9.399999999999963</v>
       </c>
       <c r="K54" t="n">
-        <v>25</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L54" t="n">
         <v>41.74999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>9.499999999999964</v>
       </c>
       <c r="K55" t="n">
-        <v>3.703703703703762</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L55" t="n">
         <v>41.81999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>9.699999999999967</v>
       </c>
       <c r="K56" t="n">
-        <v>18.5185185185185</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L56" t="n">
         <v>41.89</v>
@@ -3135,7 +3157,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K57" t="n">
-        <v>18.5185185185185</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>41.9</v>
@@ -3186,7 +3208,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K58" t="n">
-        <v>15.38461538461532</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>41.9</v>
@@ -3237,7 +3259,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L59" t="n">
         <v>41.9</v>
@@ -3288,7 +3310,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K60" t="n">
-        <v>20</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L60" t="n">
         <v>41.95</v>
@@ -3339,7 +3361,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K61" t="n">
-        <v>30.43478260869582</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>42</v>
@@ -3390,7 +3412,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K62" t="n">
-        <v>30.43478260869582</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>42</v>
@@ -3441,7 +3463,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K63" t="n">
-        <v>36.36363636363619</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>42</v>
@@ -3492,7 +3514,7 @@
         <v>9.799999999999969</v>
       </c>
       <c r="K64" t="n">
-        <v>36.36363636363619</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>42</v>
@@ -3543,7 +3565,7 @@
         <v>9.999999999999972</v>
       </c>
       <c r="K65" t="n">
-        <v>24.9999999999997</v>
+        <v>-100</v>
       </c>
       <c r="L65" t="n">
         <v>41.99</v>
@@ -3594,7 +3616,7 @@
         <v>9.999999999999972</v>
       </c>
       <c r="K66" t="n">
-        <v>18.18181818181803</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>41.96</v>
@@ -3645,7 +3667,7 @@
         <v>10.19999999999997</v>
       </c>
       <c r="K67" t="n">
-        <v>5.263157894736882</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>41.96</v>
@@ -3747,7 +3769,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>5.263157894736882</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>41.97000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>10.59999999999997</v>
       </c>
       <c r="K70" t="n">
-        <v>52.94117647058785</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L70" t="n">
         <v>42.01000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>10.59999999999997</v>
       </c>
       <c r="K71" t="n">
-        <v>52.94117647058785</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L71" t="n">
         <v>42.05</v>
@@ -3900,7 +3922,7 @@
         <v>10.69999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>38.46153846153813</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L72" t="n">
         <v>42.1</v>
@@ -3951,7 +3973,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>19.99999999999962</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L73" t="n">
         <v>42.13</v>
@@ -4002,7 +4024,7 @@
         <v>10.99999999999997</v>
       </c>
       <c r="K74" t="n">
-        <v>12.50000000000011</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L74" t="n">
         <v>42.15</v>
@@ -4053,7 +4075,7 @@
         <v>10.99999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>20.00000000000019</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L75" t="n">
         <v>42.19</v>
@@ -4104,7 +4126,7 @@
         <v>10.99999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>7.692307692307776</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L76" t="n">
         <v>42.23</v>
@@ -4155,7 +4177,7 @@
         <v>11.09999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>23.07692307692291</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>42.26</v>
@@ -4206,7 +4228,7 @@
         <v>11.39999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L78" t="n">
         <v>42.26</v>
@@ -4257,7 +4279,7 @@
         <v>11.39999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L79" t="n">
         <v>42.24999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>11.11111111111129</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L80" t="n">
         <v>42.23</v>
@@ -4359,7 +4381,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>-4.761904761904826</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L81" t="n">
         <v>42.17999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>-4.761904761904826</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L82" t="n">
         <v>42.11999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>12.19999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>-16.66666666666662</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L83" t="n">
         <v>42.05</v>
@@ -4512,7 +4534,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K84" t="n">
-        <v>9.677419354838635</v>
+        <v>5.263157894736566</v>
       </c>
       <c r="L84" t="n">
         <v>42.06</v>
@@ -4563,7 +4585,7 @@
         <v>13.19999999999996</v>
       </c>
       <c r="K85" t="n">
-        <v>6.250000000000111</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L85" t="n">
         <v>42.04</v>
@@ -4614,7 +4636,7 @@
         <v>13.29999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>9.090909090909248</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L86" t="n">
         <v>42.03</v>
@@ -4665,7 +4687,7 @@
         <v>13.49999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.030303030303082</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L87" t="n">
         <v>41.98999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>13.89999999999996</v>
       </c>
       <c r="K88" t="n">
-        <v>8.108108108108055</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L88" t="n">
         <v>42.02</v>
@@ -4767,7 +4789,7 @@
         <v>14.19999999999996</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.564102564102611</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L89" t="n">
         <v>42.02</v>
@@ -4818,7 +4840,7 @@
         <v>14.29999999999996</v>
       </c>
       <c r="K90" t="n">
-        <v>-13.51351351351356</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>41.98999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>14.29999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>-13.51351351351356</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>41.98999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>14.39999999999996</v>
       </c>
       <c r="K92" t="n">
-        <v>-13.51351351351356</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L92" t="n">
         <v>42</v>
@@ -4971,7 +4993,7 @@
         <v>14.39999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-8.571428571428525</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L93" t="n">
         <v>42.04</v>
@@ -5022,7 +5044,7 @@
         <v>14.49999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>-2.857142857142903</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L94" t="n">
         <v>42.02</v>
@@ -5073,7 +5095,7 @@
         <v>14.69999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>2.702702702702557</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L95" t="n">
         <v>42.05</v>
@@ -5124,7 +5146,7 @@
         <v>15.09999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>-7.317073170731835</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>42.02999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>15.29999999999995</v>
       </c>
       <c r="K97" t="n">
-        <v>-14.28571428571419</v>
+        <v>-42.85714285714271</v>
       </c>
       <c r="L97" t="n">
         <v>42.01</v>
@@ -5226,7 +5248,7 @@
         <v>15.49999999999995</v>
       </c>
       <c r="K98" t="n">
-        <v>-2.439024390243945</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L98" t="n">
         <v>41.96999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>15.49999999999995</v>
       </c>
       <c r="K99" t="n">
-        <v>-2.439024390243945</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>41.95999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>15.49999999999995</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.692307692307833</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>41.95999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>15.59999999999995</v>
       </c>
       <c r="K101" t="n">
-        <v>2.702702702702755</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>41.96999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>15.89999999999995</v>
       </c>
       <c r="K102" t="n">
-        <v>-4.99999999999992</v>
+        <v>-20</v>
       </c>
       <c r="L102" t="n">
         <v>41.93999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>15.99999999999995</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L103" t="n">
         <v>41.89999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>16.09999999999995</v>
       </c>
       <c r="K104" t="n">
-        <v>-18.74999999999989</v>
+        <v>-42.85714285714271</v>
       </c>
       <c r="L104" t="n">
         <v>41.85999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>16.19999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>-6.666666666666793</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L105" t="n">
         <v>41.80999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>16.19999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>-10.3448275862071</v>
+        <v>11.11111111111058</v>
       </c>
       <c r="L106" t="n">
         <v>41.8</v>
@@ -5685,7 +5707,7 @@
         <v>16.19999999999995</v>
       </c>
       <c r="K107" t="n">
-        <v>-3.703703703703782</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L107" t="n">
         <v>41.81</v>
@@ -5736,7 +5758,7 @@
         <v>16.19999999999995</v>
       </c>
       <c r="K108" t="n">
-        <v>-21.73913043478277</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L108" t="n">
         <v>41.8</v>
@@ -5787,7 +5809,7 @@
         <v>16.19999999999995</v>
       </c>
       <c r="K109" t="n">
-        <v>-10.00000000000021</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L109" t="n">
         <v>41.79000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>16.19999999999995</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.263157894736961</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L110" t="n">
         <v>41.78000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>16.59999999999995</v>
       </c>
       <c r="K111" t="n">
-        <v>13.04347826086981</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L111" t="n">
         <v>41.8</v>
@@ -5940,7 +5962,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K112" t="n">
-        <v>-4.000000000000068</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L112" t="n">
         <v>41.82000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K113" t="n">
-        <v>-4.000000000000068</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L113" t="n">
         <v>41.85</v>
@@ -6042,7 +6064,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>-8.333333333333481</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>41.87</v>
@@ -6093,7 +6115,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>-18.18181818181815</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>41.88</v>
@@ -6144,7 +6166,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L116" t="n">
         <v>41.88999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>16.99999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>5.882352941176126</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>41.88999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>16.99999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>41.88999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>16.99999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>-6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>41.88999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>17.09999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L120" t="n">
         <v>41.89999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>17.29999999999996</v>
       </c>
       <c r="K121" t="n">
-        <v>5.88235294117652</v>
+        <v>50</v>
       </c>
       <c r="L121" t="n">
         <v>41.88999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>17.29999999999996</v>
       </c>
       <c r="K122" t="n">
-        <v>28.57142857142821</v>
+        <v>50</v>
       </c>
       <c r="L122" t="n">
         <v>41.91</v>
@@ -6501,7 +6523,7 @@
         <v>17.29999999999996</v>
       </c>
       <c r="K123" t="n">
-        <v>38.46153846153813</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>41.93</v>
@@ -6552,7 +6574,7 @@
         <v>17.29999999999996</v>
       </c>
       <c r="K124" t="n">
-        <v>33.33333333333294</v>
+        <v>50</v>
       </c>
       <c r="L124" t="n">
         <v>41.95</v>
@@ -6603,7 +6625,7 @@
         <v>17.59999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>41.94000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L127" t="n">
         <v>41.94000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L128" t="n">
         <v>41.95</v>
@@ -6807,7 +6829,7 @@
         <v>17.79999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>41.97000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K130" t="n">
-        <v>-5.263157894736488</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L130" t="n">
         <v>41.95</v>
@@ -6909,7 +6931,7 @@
         <v>18.29999999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>-41.17647058823505</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L131" t="n">
         <v>41.89</v>
@@ -6960,7 +6982,7 @@
         <v>18.29999999999997</v>
       </c>
       <c r="K132" t="n">
-        <v>-28.57142857142821</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L132" t="n">
         <v>41.83</v>
@@ -7011,7 +7033,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L133" t="n">
         <v>41.81</v>
@@ -7062,7 +7084,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L134" t="n">
         <v>41.78999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>18.99999999999996</v>
       </c>
       <c r="K135" t="n">
-        <v>-14.28571428571409</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L135" t="n">
         <v>41.77</v>
@@ -7164,7 +7186,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K136" t="n">
-        <v>-21.7391304347825</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>41.72999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L137" t="n">
         <v>41.71999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>19.79999999999996</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.14285714285698</v>
+        <v>-20</v>
       </c>
       <c r="L138" t="n">
         <v>41.69</v>
@@ -7317,7 +7339,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K139" t="n">
-        <v>-16.12903225806447</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L139" t="n">
         <v>41.62</v>
@@ -7368,7 +7390,7 @@
         <v>20.29999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>-24.99999999999989</v>
+        <v>-20</v>
       </c>
       <c r="L140" t="n">
         <v>41.56</v>
@@ -7419,7 +7441,7 @@
         <v>20.69999999999996</v>
       </c>
       <c r="K141" t="n">
-        <v>-17.64705882352946</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>41.56</v>
@@ -7470,7 +7492,7 @@
         <v>20.69999999999996</v>
       </c>
       <c r="K142" t="n">
-        <v>-17.64705882352946</v>
+        <v>-20</v>
       </c>
       <c r="L142" t="n">
         <v>41.56</v>
@@ -7521,7 +7543,7 @@
         <v>20.69999999999996</v>
       </c>
       <c r="K143" t="n">
-        <v>-17.64705882352946</v>
+        <v>-20</v>
       </c>
       <c r="L143" t="n">
         <v>41.52</v>
@@ -7572,7 +7594,7 @@
         <v>20.69999999999996</v>
       </c>
       <c r="K144" t="n">
-        <v>-17.64705882352946</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L144" t="n">
         <v>41.48</v>
@@ -7627,7 +7649,7 @@
         <v>20.79999999999996</v>
       </c>
       <c r="K145" t="n">
-        <v>-12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>41.46</v>
@@ -7682,7 +7704,7 @@
         <v>21.19999999999996</v>
       </c>
       <c r="K146" t="n">
-        <v>-22.22222222222218</v>
+        <v>-50</v>
       </c>
       <c r="L146" t="n">
         <v>41.42</v>
@@ -7739,7 +7761,7 @@
         <v>21.39999999999996</v>
       </c>
       <c r="K147" t="n">
-        <v>-18.91891891891883</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L147" t="n">
         <v>41.36</v>
@@ -7796,7 +7818,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K148" t="n">
-        <v>-23.07692307692305</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L148" t="n">
         <v>41.3</v>
@@ -7857,7 +7879,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K149" t="n">
-        <v>-26.31578947368423</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L149" t="n">
         <v>41.27</v>
@@ -7914,7 +7936,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K150" t="n">
-        <v>-20.00000000000008</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L150" t="n">
         <v>41.26</v>
@@ -7971,7 +7993,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.15151515151517</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L151" t="n">
         <v>41.20999999999999</v>
@@ -8028,7 +8050,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K152" t="n">
-        <v>-17.64705882352946</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L152" t="n">
         <v>41.14999999999999</v>
@@ -8085,7 +8107,7 @@
         <v>21.79999999999997</v>
       </c>
       <c r="K153" t="n">
-        <v>-29.03225806451607</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L153" t="n">
         <v>41.09999999999999</v>
@@ -8142,7 +8164,7 @@
         <v>21.89999999999997</v>
       </c>
       <c r="K154" t="n">
-        <v>-31.24999999999997</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L154" t="n">
         <v>41.03999999999999</v>
@@ -8199,7 +8221,7 @@
         <v>21.99999999999997</v>
       </c>
       <c r="K155" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>40.99999999999999</v>
@@ -8256,7 +8278,7 @@
         <v>21.99999999999997</v>
       </c>
       <c r="K156" t="n">
-        <v>-14.28571428571421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>40.99999999999999</v>
@@ -8313,7 +8335,7 @@
         <v>21.99999999999997</v>
       </c>
       <c r="K157" t="n">
-        <v>-33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>40.98</v>
@@ -8370,7 +8392,7 @@
         <v>22.29999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>-35.99999999999984</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L158" t="n">
         <v>40.95</v>
@@ -8427,7 +8449,7 @@
         <v>22.49999999999996</v>
       </c>
       <c r="K159" t="n">
-        <v>-16.66666666666662</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L159" t="n">
         <v>40.93999999999999</v>
@@ -8484,7 +8506,7 @@
         <v>22.59999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>-13.04347826086973</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L160" t="n">
         <v>40.91999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.80952380952371</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L161" t="n">
         <v>40.91999999999999</v>
@@ -8598,7 +8620,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>-23.80952380952371</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>40.92999999999999</v>
@@ -8655,7 +8677,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>-23.80952380952371</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L163" t="n">
         <v>40.92999999999999</v>
@@ -8712,7 +8734,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>-23.80952380952371</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>40.94</v>
@@ -8763,7 +8785,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>40.94</v>
@@ -8814,7 +8836,7 @@
         <v>23.29999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>-23.80952380952371</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L166" t="n">
         <v>40.89</v>
@@ -8865,7 +8887,7 @@
         <v>23.29999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>-36.84210526315793</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L167" t="n">
         <v>40.84</v>
@@ -8916,7 +8938,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>-36.84210526315793</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L168" t="n">
         <v>40.8</v>
@@ -8967,7 +8989,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>-36.84210526315793</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L169" t="n">
         <v>40.74</v>
@@ -9018,7 +9040,7 @@
         <v>23.59999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>-29.99999999999996</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L170" t="n">
         <v>40.7</v>
@@ -9069,7 +9091,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>-36.36363636363619</v>
+        <v>-79.99999999999972</v>
       </c>
       <c r="L171" t="n">
         <v>40.62</v>
@@ -9120,7 +9142,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>-33.33333333333311</v>
+        <v>-79.99999999999972</v>
       </c>
       <c r="L172" t="n">
         <v>40.54</v>
@@ -9171,7 +9193,7 @@
         <v>23.89999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>-42.85714285714276</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L173" t="n">
         <v>40.45</v>
@@ -9222,7 +9244,7 @@
         <v>23.99999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>-42.85714285714276</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L174" t="n">
         <v>40.35</v>
@@ -9273,7 +9295,7 @@
         <v>24.09999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>-42.85714285714276</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L175" t="n">
         <v>40.26000000000001</v>
@@ -9324,7 +9346,7 @@
         <v>24.39999999999997</v>
       </c>
       <c r="K176" t="n">
-        <v>-25.00000000000007</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L176" t="n">
         <v>40.25</v>
@@ -9375,7 +9397,7 @@
         <v>24.59999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>-15.38461538461532</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L177" t="n">
         <v>40.26000000000001</v>
@@ -9426,7 +9448,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>-8.333333333333432</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L178" t="n">
         <v>40.28</v>
@@ -9477,7 +9499,7 @@
         <v>24.89999999999998</v>
       </c>
       <c r="K179" t="n">
-        <v>-8.33333333333311</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L179" t="n">
         <v>40.32</v>
@@ -9528,7 +9550,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K180" t="n">
-        <v>-26.66666666666644</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L180" t="n">
         <v>40.28</v>
@@ -9579,7 +9601,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K181" t="n">
-        <v>-35.71428571428557</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L181" t="n">
         <v>40.26000000000001</v>
@@ -9630,7 +9652,7 @@
         <v>26.09999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>-15.1515151515151</v>
+        <v>18.18181818181803</v>
       </c>
       <c r="L182" t="n">
         <v>40.29000000000001</v>
@@ -9681,7 +9703,7 @@
         <v>26.59999999999998</v>
       </c>
       <c r="K183" t="n">
-        <v>-26.31578947368413</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>40.28</v>
@@ -9732,7 +9754,7 @@
         <v>26.79999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>-29.99999999999996</v>
+        <v>-11.11111111111123</v>
       </c>
       <c r="L184" t="n">
         <v>40.26000000000001</v>
@@ -9783,7 +9805,7 @@
         <v>27.39999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>-13.04347826086955</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>40.29</v>
@@ -9834,7 +9856,7 @@
         <v>27.49999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-3.448275862068999</v>
       </c>
       <c r="L186" t="n">
         <v>40.3</v>
@@ -9936,7 +9958,7 @@
         <v>27.49999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>5.000000000000053</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L188" t="n">
         <v>40.29</v>
@@ -9987,7 +10009,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>2.439024390243928</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L189" t="n">
         <v>40.26</v>
@@ -10038,7 +10060,7 @@
         <v>27.69999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>2.439024390243928</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L190" t="n">
         <v>40.31</v>
@@ -10089,7 +10111,7 @@
         <v>27.69999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>7.692307692307581</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>40.36</v>
@@ -10140,7 +10162,7 @@
         <v>27.79999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>4.999999999999867</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L192" t="n">
         <v>40.34999999999999</v>
@@ -10191,7 +10213,7 @@
         <v>27.79999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>7.692307692307581</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L193" t="n">
         <v>40.38999999999999</v>
@@ -10242,7 +10264,7 @@
         <v>27.89999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>12.82051282051276</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>40.45999999999999</v>
@@ -10293,7 +10315,7 @@
         <v>27.89999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>10.5263157894736</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>40.46999999999999</v>
@@ -10344,7 +10366,7 @@
         <v>27.89999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>2.85714285714288</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>40.46999999999999</v>
@@ -10395,7 +10417,7 @@
         <v>27.89999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>-3.030303030303056</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>40.46999999999999</v>
@@ -10446,7 +10468,7 @@
         <v>27.89999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>40.46999999999999</v>
@@ -10497,7 +10519,7 @@
         <v>27.99999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>-3.225806451612933</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>40.48999999999999</v>
@@ -10548,7 +10570,7 @@
         <v>28.09999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>27.99999999999995</v>
+        <v>50</v>
       </c>
       <c r="L200" t="n">
         <v>40.51</v>
@@ -10599,7 +10621,7 @@
         <v>28.2</v>
       </c>
       <c r="K201" t="n">
-        <v>23.07692307692299</v>
+        <v>50</v>
       </c>
       <c r="L201" t="n">
         <v>40.52</v>
@@ -10650,7 +10672,7 @@
         <v>28.2</v>
       </c>
       <c r="K202" t="n">
-        <v>4.761904761904794</v>
+        <v>50</v>
       </c>
       <c r="L202" t="n">
         <v>40.54000000000001</v>
@@ -10701,7 +10723,7 @@
         <v>28.2</v>
       </c>
       <c r="K203" t="n">
-        <v>37.49999999999972</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>40.56000000000001</v>
@@ -10752,7 +10774,7 @@
         <v>28.2</v>
       </c>
       <c r="K204" t="n">
-        <v>57.14285714285693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>40.57000000000001</v>
@@ -10803,7 +10825,7 @@
         <v>28.4</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L205" t="n">
         <v>40.56000000000001</v>
@@ -10854,7 +10876,7 @@
         <v>28.7</v>
       </c>
       <c r="K206" t="n">
-        <v>-33.33333333333294</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L206" t="n">
         <v>40.52000000000001</v>
@@ -10956,7 +10978,7 @@
         <v>29.59999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-23.80952380952371</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L208" t="n">
         <v>40.47000000000001</v>
@@ -11007,7 +11029,7 @@
         <v>29.59999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-19.99999999999986</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L209" t="n">
         <v>40.41000000000001</v>
@@ -11058,7 +11080,7 @@
         <v>29.7</v>
       </c>
       <c r="K210" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>40.35000000000001</v>
@@ -11109,7 +11131,7 @@
         <v>29.9</v>
       </c>
       <c r="K211" t="n">
-        <v>-27.27272727272722</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L211" t="n">
         <v>40.28000000000001</v>
@@ -11160,7 +11182,7 @@
         <v>30</v>
       </c>
       <c r="K212" t="n">
-        <v>-18.18181818181803</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>40.22000000000001</v>
@@ -11211,7 +11233,7 @@
         <v>30</v>
       </c>
       <c r="K213" t="n">
-        <v>-18.18181818181803</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>40.16</v>
@@ -11262,7 +11284,7 @@
         <v>30.3</v>
       </c>
       <c r="K214" t="n">
-        <v>-33.33333333333314</v>
+        <v>-36.8421052631577</v>
       </c>
       <c r="L214" t="n">
         <v>40.07</v>
@@ -11313,7 +11335,7 @@
         <v>30.59999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>-18.5185185185185</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L215" t="n">
         <v>40.03</v>
@@ -11364,7 +11386,7 @@
         <v>30.99999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>-29.03225806451607</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L216" t="n">
         <v>39.98</v>
@@ -11415,7 +11437,7 @@
         <v>31.29999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>-17.64705882352946</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L217" t="n">
         <v>39.92</v>
@@ -11466,7 +11488,7 @@
         <v>31.29999999999999</v>
       </c>
       <c r="K218" t="n">
-        <v>-17.64705882352946</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L218" t="n">
         <v>39.91</v>
@@ -11517,7 +11539,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>-27.77777777777782</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L219" t="n">
         <v>39.87</v>
@@ -11568,7 +11590,7 @@
         <v>31.69999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>-33.33333333333346</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L220" t="n">
         <v>39.81</v>
@@ -11619,7 +11641,7 @@
         <v>32.19999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>-15.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>39.82</v>
@@ -11670,7 +11692,7 @@
         <v>32.29999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>-17.07317073170741</v>
+        <v>-4.347826086956602</v>
       </c>
       <c r="L222" t="n">
         <v>39.81</v>
@@ -11721,7 +11743,7 @@
         <v>32.69999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>-24.44444444444452</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L223" t="n">
         <v>39.76</v>
@@ -11772,7 +11794,7 @@
         <v>33.19999999999999</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>39.79</v>
@@ -11823,7 +11845,7 @@
         <v>33.49999999999999</v>
       </c>
       <c r="K225" t="n">
-        <v>-13.72549019607838</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L225" t="n">
         <v>39.76</v>
@@ -11874,7 +11896,7 @@
         <v>33.49999999999999</v>
       </c>
       <c r="K226" t="n">
-        <v>-8.33333333333332</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L226" t="n">
         <v>39.77</v>
@@ -11925,7 +11947,7 @@
         <v>33.79999999999999</v>
       </c>
       <c r="K227" t="n">
-        <v>-23.40425531914899</v>
+        <v>-20</v>
       </c>
       <c r="L227" t="n">
         <v>39.71999999999999</v>
@@ -11976,7 +11998,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K228" t="n">
-        <v>-4.347826086956589</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L228" t="n">
         <v>39.70999999999999</v>
@@ -12027,7 +12049,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K229" t="n">
-        <v>-4.347826086956589</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L229" t="n">
         <v>39.73</v>
@@ -12078,7 +12100,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>-6.666666666666772</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L230" t="n">
         <v>39.76</v>
@@ -12129,7 +12151,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>-2.325581395348876</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L231" t="n">
         <v>39.73999999999999</v>
@@ -12180,7 +12202,7 @@
         <v>34.29999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>-2.325581395348876</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L232" t="n">
         <v>39.73999999999999</v>
@@ -12231,7 +12253,7 @@
         <v>34.69999999999999</v>
       </c>
       <c r="K233" t="n">
-        <v>-10.63829787234045</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>39.73999999999999</v>
@@ -12282,7 +12304,7 @@
         <v>34.79999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>-6.666666666666772</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L234" t="n">
         <v>39.67999999999999</v>
@@ -12333,7 +12355,7 @@
         <v>34.79999999999999</v>
       </c>
       <c r="K235" t="n">
-        <v>-14.28571428571433</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L235" t="n">
         <v>39.64999999999999</v>
@@ -12384,7 +12406,7 @@
         <v>34.89999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>-2.564102564102602</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L236" t="n">
         <v>39.63</v>
@@ -12435,7 +12457,7 @@
         <v>34.99999999999999</v>
       </c>
       <c r="K237" t="n">
-        <v>-13.5135135135135</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L237" t="n">
         <v>39.63</v>
@@ -12486,7 +12508,7 @@
         <v>35.09999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>-10.52631578947364</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L238" t="n">
         <v>39.59999999999999</v>
@@ -12537,7 +12559,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>-15.00000000000001</v>
+        <v>-57.14285714285671</v>
       </c>
       <c r="L239" t="n">
         <v>39.52</v>
@@ -12588,7 +12610,7 @@
         <v>36.2</v>
       </c>
       <c r="K240" t="n">
-        <v>2.22222222222225</v>
+        <v>-9.999999999999751</v>
       </c>
       <c r="L240" t="n">
         <v>39.49999999999999</v>
@@ -12639,7 +12661,7 @@
         <v>36.2</v>
       </c>
       <c r="K241" t="n">
-        <v>-9.999999999999947</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L241" t="n">
         <v>39.48</v>
@@ -12690,7 +12712,7 @@
         <v>36.2</v>
       </c>
       <c r="K242" t="n">
-        <v>-7.692307692307608</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L242" t="n">
         <v>39.45</v>
@@ -12741,7 +12763,7 @@
         <v>36.39999999999999</v>
       </c>
       <c r="K243" t="n">
-        <v>8.108108108108025</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L243" t="n">
         <v>39.48</v>
@@ -12792,7 +12814,7 @@
         <v>36.39999999999999</v>
       </c>
       <c r="K244" t="n">
-        <v>-6.250000000000083</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L244" t="n">
         <v>39.52</v>
@@ -12843,7 +12865,7 @@
         <v>36.49999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>6.666666666666508</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L245" t="n">
         <v>39.57000000000001</v>
@@ -12894,7 +12916,7 @@
         <v>36.49999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>6.666666666666508</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>39.61</v>
@@ -12945,7 +12967,7 @@
         <v>36.49999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>18.5185185185185</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L247" t="n">
         <v>39.66</v>
@@ -12996,7 +13018,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>8.333333333333432</v>
+        <v>100</v>
       </c>
       <c r="L248" t="n">
         <v>39.71</v>
@@ -13047,7 +13069,7 @@
         <v>37.2</v>
       </c>
       <c r="K249" t="n">
-        <v>-13.33333333333326</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L249" t="n">
         <v>39.75</v>
@@ -13098,7 +13120,7 @@
         <v>37.2</v>
       </c>
       <c r="K250" t="n">
-        <v>-13.33333333333326</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L250" t="n">
         <v>39.73</v>
@@ -13149,7 +13171,7 @@
         <v>37.8</v>
       </c>
       <c r="K251" t="n">
-        <v>-27.77777777777771</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L251" t="n">
         <v>39.64999999999999</v>
@@ -13200,7 +13222,7 @@
         <v>38.2</v>
       </c>
       <c r="K252" t="n">
-        <v>-38.46153846153841</v>
+        <v>-77.77777777777752</v>
       </c>
       <c r="L252" t="n">
         <v>39.52999999999999</v>
@@ -13251,7 +13273,7 @@
         <v>38.4</v>
       </c>
       <c r="K253" t="n">
-        <v>-24.32432432432422</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L253" t="n">
         <v>39.40999999999999</v>
@@ -13302,7 +13324,7 @@
         <v>38.7</v>
       </c>
       <c r="K254" t="n">
-        <v>-28.20512820512815</v>
+        <v>-72.72727272727246</v>
       </c>
       <c r="L254" t="n">
         <v>39.25999999999999</v>
@@ -13353,7 +13375,7 @@
         <v>38.7</v>
       </c>
       <c r="K255" t="n">
-        <v>-28.20512820512815</v>
+        <v>-72.72727272727246</v>
       </c>
       <c r="L255" t="n">
         <v>39.09999999999999</v>
@@ -13404,7 +13426,7 @@
         <v>38.8</v>
       </c>
       <c r="K256" t="n">
-        <v>-28.20512820512815</v>
+        <v>-65.2173913043475</v>
       </c>
       <c r="L256" t="n">
         <v>38.95</v>
@@ -13455,7 +13477,7 @@
         <v>39</v>
       </c>
       <c r="K257" t="n">
-        <v>-29.99999999999984</v>
+        <v>-74.9999999999997</v>
       </c>
       <c r="L257" t="n">
         <v>38.77999999999999</v>
@@ -13506,7 +13528,7 @@
         <v>39</v>
       </c>
       <c r="K258" t="n">
-        <v>-33.33333333333321</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L258" t="n">
         <v>38.59999999999999</v>
@@ -13557,7 +13579,7 @@
         <v>39.2</v>
       </c>
       <c r="K259" t="n">
-        <v>-27.77777777777771</v>
+        <v>-69.99999999999969</v>
       </c>
       <c r="L259" t="n">
         <v>38.45999999999999</v>
@@ -13608,7 +13630,7 @@
         <v>39.3</v>
       </c>
       <c r="K260" t="n">
-        <v>-48.38709677419342</v>
+        <v>-46.66666666666616</v>
       </c>
       <c r="L260" t="n">
         <v>38.33</v>
@@ -13659,7 +13681,7 @@
         <v>39.60000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-52.94117647058816</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L261" t="n">
         <v>38.23</v>
@@ -13710,7 +13732,7 @@
         <v>39.8</v>
       </c>
       <c r="K262" t="n">
-        <v>-55.55555555555542</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L262" t="n">
         <v>38.15000000000001</v>
@@ -13761,7 +13783,7 @@
         <v>39.8</v>
       </c>
       <c r="K263" t="n">
-        <v>-64.7058823529408</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L263" t="n">
         <v>38.05</v>
@@ -13812,7 +13834,7 @@
         <v>39.8</v>
       </c>
       <c r="K264" t="n">
-        <v>-64.7058823529408</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L264" t="n">
         <v>37.98</v>
@@ -13863,7 +13885,7 @@
         <v>39.8</v>
       </c>
       <c r="K265" t="n">
-        <v>-69.69696969696938</v>
+        <v>-79.99999999999972</v>
       </c>
       <c r="L265" t="n">
         <v>37.91000000000001</v>
@@ -13914,7 +13936,7 @@
         <v>39.90000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>-64.7058823529408</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L266" t="n">
         <v>37.84000000000001</v>
@@ -13965,7 +13987,7 @@
         <v>40</v>
       </c>
       <c r="K267" t="n">
-        <v>-59.99999999999992</v>
+        <v>-40.00000000000057</v>
       </c>
       <c r="L267" t="n">
         <v>37.80000000000001</v>
@@ -14016,7 +14038,7 @@
         <v>40.09999999999999</v>
       </c>
       <c r="K268" t="n">
-        <v>-65.71428571428564</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>37.75000000000001</v>
@@ -14067,7 +14089,7 @@
         <v>40.09999999999999</v>
       </c>
       <c r="K269" t="n">
-        <v>-58.6206896551723</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L269" t="n">
         <v>37.72000000000001</v>
@@ -14118,7 +14140,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K270" t="n">
-        <v>-43.75000000000001</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L270" t="n">
         <v>37.71000000000001</v>
@@ -14169,7 +14191,7 @@
         <v>40.59999999999999</v>
       </c>
       <c r="K271" t="n">
-        <v>-21.42857142857125</v>
+        <v>75.00000000000111</v>
       </c>
       <c r="L271" t="n">
         <v>37.75000000000001</v>
@@ -14220,7 +14242,7 @@
         <v>40.7</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.99999999999989</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L272" t="n">
         <v>37.8</v>
@@ -14271,7 +14293,7 @@
         <v>40.89999999999999</v>
       </c>
       <c r="K273" t="n">
-        <v>-12.0000000000002</v>
+        <v>63.63636363636399</v>
       </c>
       <c r="L273" t="n">
         <v>37.87</v>
@@ -14322,7 +14344,7 @@
         <v>41.2</v>
       </c>
       <c r="K274" t="n">
-        <v>12.0000000000002</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L274" t="n">
         <v>37.97000000000001</v>
@@ -14373,7 +14395,7 @@
         <v>41.3</v>
       </c>
       <c r="K275" t="n">
-        <v>7.692307692307819</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L275" t="n">
         <v>38.06</v>
@@ -14424,7 +14446,7 @@
         <v>41.5</v>
       </c>
       <c r="K276" t="n">
-        <v>11.11111111111129</v>
+        <v>60.00000000000038</v>
       </c>
       <c r="L276" t="n">
         <v>38.16</v>
@@ -14475,7 +14497,7 @@
         <v>41.8</v>
       </c>
       <c r="K277" t="n">
-        <v>7.14285714285698</v>
+        <v>41.17647058823481</v>
       </c>
       <c r="L277" t="n">
         <v>38.22</v>
@@ -14526,7 +14548,7 @@
         <v>41.8</v>
       </c>
       <c r="K278" t="n">
-        <v>7.14285714285698</v>
+        <v>41.17647058823481</v>
       </c>
       <c r="L278" t="n">
         <v>38.29</v>
@@ -14577,7 +14599,7 @@
         <v>42.2</v>
       </c>
       <c r="K279" t="n">
-        <v>26.66666666666657</v>
+        <v>44.444444444444</v>
       </c>
       <c r="L279" t="n">
         <v>38.4</v>
@@ -14628,7 +14650,7 @@
         <v>42.5</v>
       </c>
       <c r="K280" t="n">
-        <v>12.49999999999997</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L280" t="n">
         <v>38.45</v>
@@ -14679,7 +14701,7 @@
         <v>43</v>
       </c>
       <c r="K281" t="n">
-        <v>5.882352941176569</v>
+        <v>-4.347826086956576</v>
       </c>
       <c r="L281" t="n">
         <v>38.43</v>
@@ -14730,7 +14752,7 @@
         <v>43.6</v>
       </c>
       <c r="K282" t="n">
-        <v>26.31578947368423</v>
+        <v>11.11111111111123</v>
       </c>
       <c r="L282" t="n">
         <v>38.48</v>
@@ -14781,7 +14803,7 @@
         <v>44.3</v>
       </c>
       <c r="K283" t="n">
-        <v>6.666666666666604</v>
+        <v>-22.58064516129035</v>
       </c>
       <c r="L283" t="n">
         <v>38.44</v>
@@ -14832,7 +14854,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>4.347826086956428</v>
+        <v>-22.58064516129035</v>
       </c>
       <c r="L284" t="n">
         <v>38.36</v>
@@ -14883,7 +14905,7 @@
         <v>44.8</v>
       </c>
       <c r="K285" t="n">
-        <v>-4.000000000000057</v>
+        <v>-39.39393939393947</v>
       </c>
       <c r="L285" t="n">
         <v>38.24999999999999</v>
@@ -14934,7 +14956,7 @@
         <v>45.3</v>
       </c>
       <c r="K286" t="n">
-        <v>3.703703703703626</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L286" t="n">
         <v>38.16999999999999</v>
@@ -14985,7 +15007,7 @@
         <v>45.7</v>
       </c>
       <c r="K287" t="n">
-        <v>-5.26315789473679</v>
+        <v>-23.07692307692305</v>
       </c>
       <c r="L287" t="n">
         <v>38.08</v>
@@ -15036,7 +15058,7 @@
         <v>46.2</v>
       </c>
       <c r="K288" t="n">
-        <v>4.918032786885193</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L288" t="n">
         <v>38.04</v>
@@ -15087,7 +15109,7 @@
         <v>46.7</v>
       </c>
       <c r="K289" t="n">
-        <v>-3.03030303030307</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L289" t="n">
         <v>37.91</v>
@@ -15138,7 +15160,7 @@
         <v>46.8</v>
       </c>
       <c r="K290" t="n">
-        <v>-6.249999999999965</v>
+        <v>-10.52631578947364</v>
       </c>
       <c r="L290" t="n">
         <v>37.82</v>
@@ -15189,7 +15211,7 @@
         <v>46.90000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>-11.11111111111114</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>37.77</v>
@@ -15240,7 +15262,7 @@
         <v>47.10000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>-12.50000000000004</v>
+        <v>-21.42857142857145</v>
       </c>
       <c r="L292" t="n">
         <v>37.64</v>
@@ -15291,7 +15313,7 @@
         <v>47.60000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>-7.462686567164161</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>37.63</v>
@@ -15342,7 +15364,7 @@
         <v>47.80000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L294" t="n">
         <v>37.65</v>
@@ -15393,7 +15415,7 @@
         <v>48.30000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>-14.28571428571426</v>
+        <v>-13.33333333333326</v>
       </c>
       <c r="L295" t="n">
         <v>37.66</v>
@@ -15444,7 +15466,7 @@
         <v>48.70000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>-11.11111111111116</v>
+        <v>13.33333333333326</v>
       </c>
       <c r="L296" t="n">
         <v>37.66</v>
@@ -15495,7 +15517,7 @@
         <v>48.90000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>-9.859154929577404</v>
+        <v>-11.11111111111099</v>
       </c>
       <c r="L297" t="n">
         <v>37.68</v>
@@ -15546,7 +15568,7 @@
         <v>48.90000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>-9.859154929577404</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L298" t="n">
         <v>37.65</v>
@@ -15597,7 +15619,7 @@
         <v>49.00000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>-17.64705882352934</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>37.66</v>
@@ -15648,7 +15670,7 @@
         <v>49.40000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>-7.246376811594198</v>
+        <v>20</v>
       </c>
       <c r="L300" t="n">
         <v>37.7</v>
@@ -15699,7 +15721,7 @@
         <v>49.50000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>-1.538461538461559</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L301" t="n">
         <v>37.73999999999999</v>
@@ -15750,7 +15772,7 @@
         <v>49.60000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>-13.33333333333339</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>37.79</v>
@@ -15801,7 +15823,7 @@
         <v>49.60000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>-1.886792452830214</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L303" t="n">
         <v>37.79</v>
@@ -15852,7 +15874,7 @@
         <v>49.60000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L304" t="n">
         <v>37.77</v>
@@ -15903,7 +15925,7 @@
         <v>49.90000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>1.960784313725518</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L305" t="n">
         <v>37.77</v>
@@ -15954,7 +15976,7 @@
         <v>49.90000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>-8.695652173913009</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L306" t="n">
         <v>37.73</v>
@@ -16005,7 +16027,7 @@
         <v>49.90000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L307" t="n">
         <v>37.71</v>
@@ -16056,7 +16078,7 @@
         <v>49.90000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>-13.5135135135135</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L308" t="n">
         <v>37.69</v>
@@ -16107,7 +16129,7 @@
         <v>50.10000000000001</v>
       </c>
       <c r="K309" t="n">
-        <v>-5.882352941176544</v>
+        <v>-100</v>
       </c>
       <c r="L309" t="n">
         <v>37.66</v>
@@ -16158,7 +16180,7 @@
         <v>50.60000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>5.263157894736723</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L310" t="n">
         <v>37.64</v>
@@ -16209,7 +16231,7 @@
         <v>51.10000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>-4.761904761904826</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L311" t="n">
         <v>37.58000000000001</v>
@@ -16260,7 +16282,7 @@
         <v>51.2</v>
       </c>
       <c r="K312" t="n">
-        <v>-2.439024390243767</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L312" t="n">
         <v>37.52</v>
@@ -16311,7 +16333,7 @@
         <v>51.2</v>
       </c>
       <c r="K313" t="n">
-        <v>-16.66666666666654</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L313" t="n">
         <v>37.46</v>
@@ -16362,7 +16384,7 @@
         <v>51.8</v>
       </c>
       <c r="K314" t="n">
-        <v>-5.000000000000089</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L314" t="n">
         <v>37.46</v>
@@ -16413,7 +16435,7 @@
         <v>52.3</v>
       </c>
       <c r="K315" t="n">
-        <v>-5.000000000000089</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L315" t="n">
         <v>37.44</v>
@@ -16464,7 +16486,7 @@
         <v>52.4</v>
       </c>
       <c r="K316" t="n">
-        <v>-13.51351351351356</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L316" t="n">
         <v>37.43</v>
@@ -16515,7 +16537,7 @@
         <v>52.4</v>
       </c>
       <c r="K317" t="n">
-        <v>-8.57142857142871</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L317" t="n">
         <v>37.42</v>
@@ -16566,7 +16588,7 @@
         <v>52.5</v>
       </c>
       <c r="K318" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>37.4</v>
@@ -16617,7 +16639,7 @@
         <v>52.6</v>
       </c>
       <c r="K319" t="n">
-        <v>-5.555555555555643</v>
+        <v>-20</v>
       </c>
       <c r="L319" t="n">
         <v>37.41</v>
@@ -16668,7 +16690,7 @@
         <v>52.7</v>
       </c>
       <c r="K320" t="n">
-        <v>-21.21212121212131</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>37.36</v>
@@ -16719,7 +16741,7 @@
         <v>52.8</v>
       </c>
       <c r="K321" t="n">
-        <v>-15.15151515151517</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L321" t="n">
         <v>37.36999999999999</v>
@@ -16770,7 +16792,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>-15.15151515151517</v>
+        <v>5.882352941176126</v>
       </c>
       <c r="L322" t="n">
         <v>37.38</v>
@@ -16821,7 +16843,7 @@
         <v>53.00000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>-11.7647058823529</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L323" t="n">
         <v>37.39999999999999</v>
@@ -16872,7 +16894,7 @@
         <v>53.00000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>-11.7647058823529</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L324" t="n">
         <v>37.35999999999999</v>
@@ -16923,7 +16945,7 @@
         <v>53.00000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>-3.225806451612947</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>37.36999999999999</v>
@@ -16974,7 +16996,7 @@
         <v>53.00000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>-3.225806451612947</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>37.36999999999999</v>
@@ -17025,7 +17047,7 @@
         <v>53.10000000000001</v>
       </c>
       <c r="K327" t="n">
-        <v>-6.250000000000083</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>37.35999999999999</v>
@@ -17076,7 +17098,7 @@
         <v>53.20000000000001</v>
       </c>
       <c r="K328" t="n">
-        <v>-3.03030303030307</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>37.36999999999999</v>
@@ -17127,7 +17149,7 @@
         <v>53.20000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>3.225806451612947</v>
+        <v>20</v>
       </c>
       <c r="L329" t="n">
         <v>37.36999999999999</v>
@@ -17178,7 +17200,7 @@
         <v>53.30000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>-11.11111111111099</v>
+        <v>20</v>
       </c>
       <c r="L330" t="n">
         <v>37.38999999999999</v>
@@ -17229,7 +17251,7 @@
         <v>53.40000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>4.347826086956576</v>
+        <v>20</v>
       </c>
       <c r="L331" t="n">
         <v>37.38999999999999</v>
@@ -17280,7 +17302,7 @@
         <v>53.60000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L332" t="n">
         <v>37.37999999999998</v>
@@ -17331,7 +17353,7 @@
         <v>53.7</v>
       </c>
       <c r="K333" t="n">
-        <v>3.999999999999773</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L333" t="n">
         <v>37.36999999999999</v>
@@ -17382,7 +17404,7 @@
         <v>53.90000000000001</v>
       </c>
       <c r="K334" t="n">
-        <v>-14.28571428571409</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L334" t="n">
         <v>37.37999999999999</v>
@@ -17433,7 +17455,7 @@
         <v>53.90000000000001</v>
       </c>
       <c r="K335" t="n">
-        <v>12.50000000000011</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L335" t="n">
         <v>37.38999999999999</v>
@@ -17484,7 +17506,7 @@
         <v>53.90000000000001</v>
       </c>
       <c r="K336" t="n">
-        <v>6.66666666666673</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L336" t="n">
         <v>37.39999999999999</v>
@@ -17535,7 +17557,7 @@
         <v>54.10000000000001</v>
       </c>
       <c r="K337" t="n">
-        <v>-5.88235294117652</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L337" t="n">
         <v>37.39999999999999</v>
@@ -17586,7 +17608,7 @@
         <v>54.30000000000001</v>
       </c>
       <c r="K338" t="n">
-        <v>11.1111111111112</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L338" t="n">
         <v>37.41</v>
@@ -17637,7 +17659,7 @@
         <v>54.40000000000001</v>
       </c>
       <c r="K339" t="n">
-        <v>11.1111111111112</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L339" t="n">
         <v>37.43</v>
@@ -17688,7 +17710,7 @@
         <v>54.40000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>17.64705882352956</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L340" t="n">
         <v>37.44</v>
@@ -17739,7 +17761,7 @@
         <v>55.10000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>39.13043478260856</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="L341" t="n">
         <v>37.53000000000001</v>
@@ -17790,7 +17812,7 @@
         <v>55.40000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>28.00000000000011</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L342" t="n">
         <v>37.61000000000001</v>
@@ -17841,7 +17863,7 @@
         <v>55.60000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>30.76923076923092</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L343" t="n">
         <v>37.7</v>
@@ -17892,7 +17914,7 @@
         <v>55.90000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>17.24137931034479</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L344" t="n">
         <v>37.74</v>
@@ -17943,7 +17965,7 @@
         <v>55.90000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>17.24137931034479</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L345" t="n">
         <v>37.78</v>
@@ -17994,7 +18016,7 @@
         <v>56.20000000000002</v>
       </c>
       <c r="K346" t="n">
-        <v>25.00000000000006</v>
+        <v>42.85714285714295</v>
       </c>
       <c r="L346" t="n">
         <v>37.85</v>
@@ -18045,7 +18067,7 @@
         <v>56.40000000000002</v>
       </c>
       <c r="K347" t="n">
-        <v>21.21212121212123</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L347" t="n">
         <v>37.92</v>
@@ -18096,7 +18118,7 @@
         <v>56.60000000000002</v>
       </c>
       <c r="K348" t="n">
-        <v>11.76470588235285</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L348" t="n">
         <v>37.95</v>
@@ -18151,7 +18173,7 @@
         <v>57.40000000000003</v>
       </c>
       <c r="K349" t="n">
-        <v>28.57142857142853</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L349" t="n">
         <v>38.05</v>
@@ -18210,7 +18232,7 @@
         <v>57.70000000000002</v>
       </c>
       <c r="K350" t="n">
-        <v>31.8181818181817</v>
+        <v>23.07692307692299</v>
       </c>
       <c r="L350" t="n">
         <v>38.17999999999999</v>
@@ -18269,7 +18291,7 @@
         <v>57.70000000000002</v>
       </c>
       <c r="K351" t="n">
-        <v>34.88372093023246</v>
+        <v>39.13043478260832</v>
       </c>
       <c r="L351" t="n">
         <v>38.23999999999999</v>
@@ -18328,7 +18350,7 @@
         <v>57.70000000000002</v>
       </c>
       <c r="K352" t="n">
-        <v>41.46341463414608</v>
+        <v>33.33333333333288</v>
       </c>
       <c r="L352" t="n">
         <v>38.32999999999999</v>
@@ -18387,7 +18409,7 @@
         <v>58.00000000000002</v>
       </c>
       <c r="K353" t="n">
-        <v>30.23255813953486</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>38.36999999999999</v>
@@ -18446,7 +18468,7 @@
         <v>58.30000000000002</v>
       </c>
       <c r="K354" t="n">
-        <v>31.8181818181817</v>
+        <v>41.66666666666657</v>
       </c>
       <c r="L354" t="n">
         <v>38.46999999999999</v>
@@ -18505,7 +18527,7 @@
         <v>58.40000000000002</v>
       </c>
       <c r="K355" t="n">
-        <v>33.33333333333323</v>
+        <v>36.36363636363619</v>
       </c>
       <c r="L355" t="n">
         <v>38.58</v>
@@ -18562,7 +18584,7 @@
         <v>58.90000000000002</v>
       </c>
       <c r="K356" t="n">
-        <v>19.99999999999994</v>
+        <v>20</v>
       </c>
       <c r="L356" t="n">
         <v>38.61</v>
@@ -18619,7 +18641,7 @@
         <v>58.90000000000002</v>
       </c>
       <c r="K357" t="n">
-        <v>25</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L357" t="n">
         <v>38.66</v>
@@ -18676,7 +18698,7 @@
         <v>58.90000000000002</v>
       </c>
       <c r="K358" t="n">
-        <v>21.73913043478257</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L358" t="n">
         <v>38.73</v>
@@ -18727,7 +18749,7 @@
         <v>59.00000000000002</v>
       </c>
       <c r="K359" t="n">
-        <v>21.73913043478257</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L359" t="n">
         <v>38.73</v>
@@ -18778,7 +18800,7 @@
         <v>59.20000000000002</v>
       </c>
       <c r="K360" t="n">
-        <v>24.99999999999989</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L360" t="n">
         <v>38.72</v>
@@ -18829,7 +18851,7 @@
         <v>59.40000000000002</v>
       </c>
       <c r="K361" t="n">
-        <v>16.27906976744188</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L361" t="n">
         <v>38.73</v>
@@ -18880,7 +18902,7 @@
         <v>59.50000000000002</v>
       </c>
       <c r="K362" t="n">
-        <v>21.951219512195</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L362" t="n">
         <v>38.73</v>
@@ -18931,7 +18953,7 @@
         <v>59.50000000000002</v>
       </c>
       <c r="K363" t="n">
-        <v>17.94871794871778</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>38.76</v>
@@ -18982,7 +19004,7 @@
         <v>59.50000000000002</v>
       </c>
       <c r="K364" t="n">
-        <v>27.77777777777771</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L364" t="n">
         <v>38.76</v>
@@ -19033,7 +19055,7 @@
         <v>59.50000000000002</v>
       </c>
       <c r="K365" t="n">
-        <v>27.77777777777771</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L365" t="n">
         <v>38.74999999999999</v>
@@ -19084,7 +19106,7 @@
         <v>59.60000000000002</v>
       </c>
       <c r="K366" t="n">
-        <v>17.64705882352921</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L366" t="n">
         <v>38.77999999999999</v>
@@ -19135,7 +19157,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K367" t="n">
-        <v>35.13513513513503</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L367" t="n">
         <v>38.86</v>
@@ -19186,7 +19208,7 @@
         <v>60.70000000000002</v>
       </c>
       <c r="K368" t="n">
-        <v>21.95121951219529</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L368" t="n">
         <v>38.88</v>
@@ -19237,7 +19259,7 @@
         <v>61.00000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>11.11111111111111</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L369" t="n">
         <v>38.91999999999999</v>
@@ -19288,7 +19310,7 @@
         <v>61.10000000000002</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L370" t="n">
         <v>38.92999999999999</v>
@@ -19339,7 +19361,7 @@
         <v>61.20000000000002</v>
       </c>
       <c r="K371" t="n">
-        <v>-2.857142857142903</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L371" t="n">
         <v>38.90999999999999</v>
@@ -19390,7 +19412,7 @@
         <v>61.20000000000002</v>
       </c>
       <c r="K372" t="n">
-        <v>-2.857142857142903</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L372" t="n">
         <v>38.89999999999999</v>
@@ -19441,7 +19463,7 @@
         <v>61.20000000000002</v>
       </c>
       <c r="K373" t="n">
-        <v>6.249999999999875</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L373" t="n">
         <v>38.89</v>
@@ -19492,7 +19514,7 @@
         <v>61.40000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>-9.677419354838635</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L374" t="n">
         <v>38.86</v>
@@ -19543,7 +19565,7 @@
         <v>61.50000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>-16.12903225806455</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L375" t="n">
         <v>38.82000000000001</v>
@@ -19594,7 +19616,7 @@
         <v>61.50000000000001</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>-57.14285714285728</v>
       </c>
       <c r="L376" t="n">
         <v>38.79000000000001</v>
@@ -19645,7 +19667,7 @@
         <v>61.80000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>10.34482758620683</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L377" t="n">
         <v>38.74</v>
@@ -19696,7 +19718,7 @@
         <v>62.00000000000001</v>
       </c>
       <c r="K378" t="n">
-        <v>3.225806451612962</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L378" t="n">
         <v>38.73</v>
@@ -19747,7 +19769,7 @@
         <v>62.00000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>38.69000000000001</v>
@@ -19798,7 +19820,7 @@
         <v>62.20000000000001</v>
       </c>
       <c r="K380" t="n">
-        <v>-13.33333333333332</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L380" t="n">
         <v>38.64000000000001</v>
@@ -19849,7 +19871,7 @@
         <v>62.30000000000001</v>
       </c>
       <c r="K381" t="n">
-        <v>-24.13793103448293</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L381" t="n">
         <v>38.59000000000001</v>
@@ -19900,7 +19922,7 @@
         <v>62.50000000000001</v>
       </c>
       <c r="K382" t="n">
-        <v>-26.6666666666667</v>
+        <v>-53.84615384615393</v>
       </c>
       <c r="L382" t="n">
         <v>38.52000000000001</v>
@@ -19951,7 +19973,7 @@
         <v>62.50000000000001</v>
       </c>
       <c r="K383" t="n">
-        <v>-26.6666666666667</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L383" t="n">
         <v>38.45000000000001</v>
@@ -20002,7 +20024,7 @@
         <v>62.50000000000001</v>
       </c>
       <c r="K384" t="n">
-        <v>-26.6666666666667</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L384" t="n">
         <v>38.40000000000001</v>
@@ -20053,7 +20075,7 @@
         <v>62.50000000000001</v>
       </c>
       <c r="K385" t="n">
-        <v>-26.6666666666667</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L385" t="n">
         <v>38.36000000000001</v>
@@ -20104,7 +20126,7 @@
         <v>62.7</v>
       </c>
       <c r="K386" t="n">
-        <v>-16.12903225806462</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L386" t="n">
         <v>38.34000000000002</v>
@@ -20155,7 +20177,7 @@
         <v>62.7</v>
       </c>
       <c r="K387" t="n">
-        <v>-38.46153846153876</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L387" t="n">
         <v>38.29000000000001</v>
@@ -20206,7 +20228,7 @@
         <v>62.7</v>
       </c>
       <c r="K388" t="n">
-        <v>-20.00000000000043</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L388" t="n">
         <v>38.26000000000001</v>
@@ -20257,7 +20279,7 @@
         <v>62.8</v>
       </c>
       <c r="K389" t="n">
-        <v>-44.44444444444471</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>38.22000000000001</v>
@@ -20308,7 +20330,7 @@
         <v>62.9</v>
       </c>
       <c r="K390" t="n">
-        <v>-44.44444444444471</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>38.19000000000001</v>
@@ -20359,7 +20381,7 @@
         <v>62.9</v>
       </c>
       <c r="K391" t="n">
-        <v>-41.17647058823549</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>38.17000000000002</v>
@@ -20410,7 +20432,7 @@
         <v>63.2</v>
       </c>
       <c r="K392" t="n">
-        <v>-20.00000000000014</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L392" t="n">
         <v>38.20000000000001</v>
@@ -20461,7 +20483,7 @@
         <v>63.2</v>
       </c>
       <c r="K393" t="n">
-        <v>-20.00000000000014</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L393" t="n">
         <v>38.23</v>
@@ -20512,7 +20534,7 @@
         <v>63.4</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L394" t="n">
         <v>38.28000000000001</v>
@@ -20563,7 +20585,7 @@
         <v>63.59999999999999</v>
       </c>
       <c r="K395" t="n">
-        <v>14.28571428571428</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L395" t="n">
         <v>38.35000000000001</v>
@@ -20614,7 +20636,7 @@
         <v>63.89999999999999</v>
       </c>
       <c r="K396" t="n">
-        <v>0</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L396" t="n">
         <v>38.37</v>
@@ -20665,7 +20687,7 @@
         <v>64.39999999999999</v>
       </c>
       <c r="K397" t="n">
-        <v>7.69230769230786</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L397" t="n">
         <v>38.44</v>
@@ -20716,7 +20738,7 @@
         <v>64.79999999999998</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L398" t="n">
         <v>38.47000000000001</v>
@@ -20767,7 +20789,7 @@
         <v>64.89999999999998</v>
       </c>
       <c r="K399" t="n">
-        <v>3.44827586206905</v>
+        <v>30.00000000000039</v>
       </c>
       <c r="L399" t="n">
         <v>38.52</v>
@@ -20818,7 +20840,7 @@
         <v>65.09999999999997</v>
       </c>
       <c r="K400" t="n">
-        <v>17.24137931034509</v>
+        <v>36.36363636363677</v>
       </c>
       <c r="L400" t="n">
         <v>38.6</v>
@@ -20869,7 +20891,7 @@
         <v>65.39999999999996</v>
       </c>
       <c r="K401" t="n">
-        <v>9.677419354838998</v>
+        <v>9.090909090909355</v>
       </c>
       <c r="L401" t="n">
         <v>38.65</v>
@@ -20920,7 +20942,7 @@
         <v>65.69999999999996</v>
       </c>
       <c r="K402" t="n">
-        <v>25.00000000000028</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L402" t="n">
         <v>38.7</v>
@@ -20971,7 +20993,7 @@
         <v>65.69999999999996</v>
       </c>
       <c r="K403" t="n">
-        <v>25.00000000000028</v>
+        <v>13.04347826086966</v>
       </c>
       <c r="L403" t="n">
         <v>38.75</v>
@@ -21022,7 +21044,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K404" t="n">
-        <v>17.64705882352976</v>
+        <v>-4.347826086956361</v>
       </c>
       <c r="L404" t="n">
         <v>38.76</v>
@@ -21073,7 +21095,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K405" t="n">
-        <v>17.64705882352976</v>
+        <v>10.00000000000036</v>
       </c>
       <c r="L405" t="n">
         <v>38.74999999999999</v>
@@ -21124,7 +21146,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K406" t="n">
-        <v>12.50000000000039</v>
+        <v>-20.00000000000038</v>
       </c>
       <c r="L406" t="n">
         <v>38.77</v>
@@ -21175,7 +21197,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K407" t="n">
-        <v>12.50000000000039</v>
+        <v>9.090909090909502</v>
       </c>
       <c r="L407" t="n">
         <v>38.73999999999999</v>
@@ -21226,7 +21248,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K408" t="n">
-        <v>12.50000000000039</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>38.74999999999999</v>
@@ -21277,7 +21299,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K409" t="n">
-        <v>16.12903225806477</v>
+        <v>-25</v>
       </c>
       <c r="L409" t="n">
         <v>38.74999999999999</v>
@@ -21328,7 +21350,7 @@
         <v>66.09999999999995</v>
       </c>
       <c r="K410" t="n">
-        <v>12.50000000000014</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L410" t="n">
         <v>38.70999999999999</v>
@@ -21379,7 +21401,7 @@
         <v>66.59999999999995</v>
       </c>
       <c r="K411" t="n">
-        <v>24.3243243243246</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L411" t="n">
         <v>38.74999999999999</v>
@@ -21430,7 +21452,7 @@
         <v>66.79999999999995</v>
       </c>
       <c r="K412" t="n">
-        <v>22.22222222222259</v>
+        <v>27.2727272727278</v>
       </c>
       <c r="L412" t="n">
         <v>38.77999999999999</v>
@@ -21481,7 +21503,7 @@
         <v>67.49999999999996</v>
       </c>
       <c r="K413" t="n">
-        <v>2.325581395348891</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L413" t="n">
         <v>38.73999999999999</v>
@@ -21532,7 +21554,7 @@
         <v>67.49999999999996</v>
       </c>
       <c r="K414" t="n">
-        <v>-2.439024390243961</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L414" t="n">
         <v>38.71999999999999</v>
@@ -21583,7 +21605,7 @@
         <v>67.49999999999996</v>
       </c>
       <c r="K415" t="n">
-        <v>-7.692307692307693</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L415" t="n">
         <v>38.7</v>
@@ -21634,7 +21656,7 @@
         <v>67.49999999999996</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L416" t="n">
         <v>38.67999999999999</v>
@@ -21685,7 +21707,7 @@
         <v>67.49999999999996</v>
       </c>
       <c r="K417" t="n">
-        <v>-16.12903225806469</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L417" t="n">
         <v>38.66</v>
@@ -21736,7 +21758,7 @@
         <v>67.49999999999996</v>
       </c>
       <c r="K418" t="n">
-        <v>-3.703703703703792</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L418" t="n">
         <v>38.64</v>
@@ -21787,7 +21809,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K419" t="n">
-        <v>-3.703703703703772</v>
+        <v>6.666666666666698</v>
       </c>
       <c r="L419" t="n">
         <v>38.63</v>
@@ -21838,7 +21860,7 @@
         <v>67.69999999999996</v>
       </c>
       <c r="K420" t="n">
-        <v>-15.38461538461536</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L420" t="n">
         <v>38.63</v>
@@ -21889,7 +21911,7 @@
         <v>67.69999999999996</v>
       </c>
       <c r="K421" t="n">
-        <v>-4.347826086956589</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L421" t="n">
         <v>38.58</v>
@@ -21940,7 +21962,7 @@
         <v>67.69999999999996</v>
       </c>
       <c r="K422" t="n">
-        <v>-19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L422" t="n">
         <v>38.51000000000001</v>
@@ -21991,7 +22013,7 @@
         <v>67.79999999999995</v>
       </c>
       <c r="K423" t="n">
-        <v>-14.28571428571419</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L423" t="n">
         <v>38.52</v>
@@ -22042,7 +22064,7 @@
         <v>67.79999999999995</v>
       </c>
       <c r="K424" t="n">
-        <v>-5.263157894736901</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L424" t="n">
         <v>38.53000000000001</v>
@@ -22093,7 +22115,7 @@
         <v>67.79999999999995</v>
       </c>
       <c r="K425" t="n">
-        <v>-5.263157894736901</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L425" t="n">
         <v>38.54000000000001</v>
@@ -22144,7 +22166,7 @@
         <v>67.79999999999995</v>
       </c>
       <c r="K426" t="n">
-        <v>-5.263157894736901</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L426" t="n">
         <v>38.55000000000001</v>
@@ -22195,7 +22217,7 @@
         <v>67.99999999999994</v>
       </c>
       <c r="K427" t="n">
-        <v>4.761904761904504</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L427" t="n">
         <v>38.58000000000001</v>
@@ -22246,7 +22268,7 @@
         <v>67.99999999999994</v>
       </c>
       <c r="K428" t="n">
-        <v>4.761904761904504</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L428" t="n">
         <v>38.61000000000001</v>
@@ -22297,7 +22319,7 @@
         <v>68.09999999999994</v>
       </c>
       <c r="K429" t="n">
-        <v>9.090909090908944</v>
+        <v>100.0000000000053</v>
       </c>
       <c r="L429" t="n">
         <v>38.64000000000001</v>
@@ -22348,7 +22370,7 @@
         <v>68.19999999999993</v>
       </c>
       <c r="K430" t="n">
-        <v>23.80952380952404</v>
+        <v>100.0000000000057</v>
       </c>
       <c r="L430" t="n">
         <v>38.69000000000001</v>
@@ -22399,7 +22421,7 @@
         <v>68.19999999999993</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>100.0000000000057</v>
       </c>
       <c r="L431" t="n">
         <v>38.74000000000001</v>
@@ -22450,7 +22472,7 @@
         <v>68.19999999999993</v>
       </c>
       <c r="K432" t="n">
-        <v>-14.28571428571472</v>
+        <v>100.0000000000053</v>
       </c>
       <c r="L432" t="n">
         <v>38.79000000000001</v>
@@ -22501,7 +22523,7 @@
         <v>68.19999999999993</v>
       </c>
       <c r="K433" t="n">
-        <v>71.42857142857405</v>
+        <v>100.0000000000053</v>
       </c>
       <c r="L433" t="n">
         <v>38.83000000000001</v>
@@ -22552,7 +22574,7 @@
         <v>68.19999999999993</v>
       </c>
       <c r="K434" t="n">
-        <v>71.42857142857405</v>
+        <v>100.0000000000053</v>
       </c>
       <c r="L434" t="n">
         <v>38.87</v>
@@ -22603,7 +22625,7 @@
         <v>68.19999999999993</v>
       </c>
       <c r="K435" t="n">
-        <v>71.42857142857405</v>
+        <v>100.0000000000053</v>
       </c>
       <c r="L435" t="n">
         <v>38.91</v>
@@ -22654,7 +22676,7 @@
         <v>68.19999999999993</v>
       </c>
       <c r="K436" t="n">
-        <v>71.42857142857405</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L436" t="n">
         <v>38.95</v>
@@ -22705,7 +22727,7 @@
         <v>68.39999999999993</v>
       </c>
       <c r="K437" t="n">
-        <v>77.77777777778006</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L437" t="n">
         <v>38.98999999999999</v>
@@ -22756,7 +22778,7 @@
         <v>68.69999999999993</v>
       </c>
       <c r="K438" t="n">
-        <v>33.33333333333393</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>38.99999999999999</v>
@@ -22807,7 +22829,7 @@
         <v>68.79999999999993</v>
       </c>
       <c r="K439" t="n">
-        <v>16.66666666666686</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L439" t="n">
         <v>38.98999999999999</v>
@@ -22858,7 +22880,7 @@
         <v>68.99999999999993</v>
       </c>
       <c r="K440" t="n">
-        <v>38.46153846153938</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>38.98999999999999</v>
@@ -22909,7 +22931,7 @@
         <v>68.99999999999993</v>
       </c>
       <c r="K441" t="n">
-        <v>38.46153846153938</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>38.98999999999999</v>
@@ -22960,7 +22982,7 @@
         <v>68.99999999999993</v>
       </c>
       <c r="K442" t="n">
-        <v>38.46153846153938</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>38.98999999999999</v>
@@ -23011,7 +23033,7 @@
         <v>69.09999999999994</v>
       </c>
       <c r="K443" t="n">
-        <v>38.46153846153897</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L443" t="n">
         <v>39</v>
@@ -23062,7 +23084,7 @@
         <v>69.19999999999993</v>
       </c>
       <c r="K444" t="n">
-        <v>42.85714285714366</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L444" t="n">
         <v>39.02</v>
@@ -23113,7 +23135,7 @@
         <v>69.29999999999993</v>
       </c>
       <c r="K445" t="n">
-        <v>46.66666666666727</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L445" t="n">
         <v>39.05</v>
@@ -23164,7 +23186,7 @@
         <v>69.29999999999993</v>
       </c>
       <c r="K446" t="n">
-        <v>46.66666666666727</v>
+        <v>11.11111111111058</v>
       </c>
       <c r="L446" t="n">
         <v>39.08</v>
@@ -23215,7 +23237,7 @@
         <v>69.39999999999992</v>
       </c>
       <c r="K447" t="n">
-        <v>28.57142857142944</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L447" t="n">
         <v>39.08</v>
@@ -23266,7 +23288,7 @@
         <v>69.39999999999992</v>
       </c>
       <c r="K448" t="n">
-        <v>28.57142857142944</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L448" t="n">
         <v>39.11</v>
@@ -23317,7 +23339,7 @@
         <v>69.59999999999991</v>
       </c>
       <c r="K449" t="n">
-        <v>33.33333333333396</v>
+        <v>66.66666666666863</v>
       </c>
       <c r="L449" t="n">
         <v>39.17</v>
@@ -23368,7 +23390,7 @@
         <v>69.6999999999999</v>
       </c>
       <c r="K450" t="n">
-        <v>33.33333333333396</v>
+        <v>71.42857142857405</v>
       </c>
       <c r="L450" t="n">
         <v>39.22</v>
@@ -23419,7 +23441,7 @@
         <v>69.6999999999999</v>
       </c>
       <c r="K451" t="n">
-        <v>33.33333333333396</v>
+        <v>71.42857142857405</v>
       </c>
       <c r="L451" t="n">
         <v>39.27</v>
@@ -23470,7 +23492,7 @@
         <v>70.4999999999999</v>
       </c>
       <c r="K452" t="n">
-        <v>56.52173913043542</v>
+        <v>85.71428571428767</v>
       </c>
       <c r="L452" t="n">
         <v>39.4</v>
@@ -23521,7 +23543,7 @@
         <v>70.4999999999999</v>
       </c>
       <c r="K453" t="n">
-        <v>56.52173913043542</v>
+        <v>84.61538461538622</v>
       </c>
       <c r="L453" t="n">
         <v>39.52</v>
@@ -23572,7 +23594,7 @@
         <v>70.59999999999989</v>
       </c>
       <c r="K454" t="n">
-        <v>50.00000000000089</v>
+        <v>69.23076923077134</v>
       </c>
       <c r="L454" t="n">
         <v>39.62</v>
@@ -23623,7 +23645,7 @@
         <v>70.89999999999989</v>
       </c>
       <c r="K455" t="n">
-        <v>55.55555555555638</v>
+        <v>75.00000000000178</v>
       </c>
       <c r="L455" t="n">
         <v>39.73999999999999</v>
@@ -23674,7 +23696,7 @@
         <v>70.99999999999989</v>
       </c>
       <c r="K456" t="n">
-        <v>50.00000000000077</v>
+        <v>75.00000000000134</v>
       </c>
       <c r="L456" t="n">
         <v>39.84999999999999</v>
@@ -23725,7 +23747,7 @@
         <v>71.19999999999987</v>
       </c>
       <c r="K457" t="n">
-        <v>35.71428571428648</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L457" t="n">
         <v>39.95</v>
@@ -23776,7 +23798,7 @@
         <v>71.29999999999987</v>
       </c>
       <c r="K458" t="n">
-        <v>53.84615384615509</v>
+        <v>52.94117647058939</v>
       </c>
       <c r="L458" t="n">
         <v>40.06</v>
@@ -23827,7 +23849,7 @@
         <v>71.29999999999987</v>
       </c>
       <c r="K459" t="n">
-        <v>60.00000000000136</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L459" t="n">
         <v>40.15</v>
@@ -23878,7 +23900,7 @@
         <v>71.49999999999987</v>
       </c>
       <c r="K460" t="n">
-        <v>60.00000000000136</v>
+        <v>55.55555555555652</v>
       </c>
       <c r="L460" t="n">
         <v>40.25</v>
@@ -23929,7 +23951,7 @@
         <v>71.69999999999987</v>
       </c>
       <c r="K461" t="n">
-        <v>48.14814814814901</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>40.33</v>
@@ -23980,7 +24002,7 @@
         <v>71.79999999999987</v>
       </c>
       <c r="K462" t="n">
-        <v>42.85714285714387</v>
+        <v>-7.69230769230744</v>
       </c>
       <c r="L462" t="n">
         <v>40.32</v>
@@ -24031,7 +24053,7 @@
         <v>72.39999999999986</v>
       </c>
       <c r="K463" t="n">
-        <v>51.51515151515254</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L463" t="n">
         <v>40.37</v>
@@ -24082,7 +24104,7 @@
         <v>72.89999999999986</v>
       </c>
       <c r="K464" t="n">
-        <v>29.72972972973012</v>
+        <v>-10.00000000000028</v>
       </c>
       <c r="L464" t="n">
         <v>40.38</v>
@@ -24133,7 +24155,7 @@
         <v>72.89999999999986</v>
       </c>
       <c r="K465" t="n">
-        <v>27.77777777777826</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L465" t="n">
         <v>40.36</v>
@@ -24184,7 +24206,7 @@
         <v>72.89999999999986</v>
       </c>
       <c r="K466" t="n">
-        <v>27.77777777777826</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L466" t="n">
         <v>40.35000000000001</v>
@@ -24235,7 +24257,7 @@
         <v>73.19999999999986</v>
       </c>
       <c r="K467" t="n">
-        <v>21.05263157894763</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L467" t="n">
         <v>40.33000000000001</v>
@@ -24286,7 +24308,7 @@
         <v>73.69999999999986</v>
       </c>
       <c r="K468" t="n">
-        <v>30.23255813953524</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L468" t="n">
         <v>40.35000000000001</v>
@@ -24337,7 +24359,7 @@
         <v>73.79999999999987</v>
       </c>
       <c r="K469" t="n">
-        <v>28.57142857142891</v>
+        <v>4.347826086956589</v>
       </c>
       <c r="L469" t="n">
         <v>40.38000000000001</v>
@@ -24388,7 +24410,7 @@
         <v>74.29999999999987</v>
       </c>
       <c r="K470" t="n">
-        <v>13.04347826086969</v>
+        <v>-7.692307692307546</v>
       </c>
       <c r="L470" t="n">
         <v>40.34000000000001</v>
@@ -24439,7 +24461,7 @@
         <v>74.29999999999987</v>
       </c>
       <c r="K471" t="n">
-        <v>13.04347826086969</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L471" t="n">
         <v>40.32000000000001</v>
@@ -24490,7 +24512,7 @@
         <v>74.29999999999987</v>
       </c>
       <c r="K472" t="n">
-        <v>-5.263157894736773</v>
+        <v>-36.84210526315756</v>
       </c>
       <c r="L472" t="n">
         <v>40.31000000000002</v>
@@ -24541,7 +24563,7 @@
         <v>74.29999999999987</v>
       </c>
       <c r="K473" t="n">
-        <v>-5.263157894736773</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L473" t="n">
         <v>40.24000000000002</v>
@@ -24592,7 +24614,7 @@
         <v>74.99999999999986</v>
       </c>
       <c r="K474" t="n">
-        <v>13.63636363636362</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L474" t="n">
         <v>40.29000000000001</v>
@@ -24643,7 +24665,7 @@
         <v>75.69999999999985</v>
       </c>
       <c r="K475" t="n">
-        <v>-8.333333333333384</v>
+        <v>-7.142857142857034</v>
       </c>
       <c r="L475" t="n">
         <v>40.27000000000002</v>
@@ -24694,7 +24716,7 @@
         <v>75.69999999999985</v>
       </c>
       <c r="K476" t="n">
-        <v>-6.382978723404249</v>
+        <v>4.00000000000008</v>
       </c>
       <c r="L476" t="n">
         <v>40.25000000000001</v>

--- a/BackTest/2019-10-17 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-17 BackTest LAMB.xlsx
@@ -9726,13 +9726,17 @@
         <v>39.25166666666666</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K267" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
@@ -9761,14 +9765,22 @@
         <v>39.21333333333332</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="K268" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9796,14 +9808,22 @@
         <v>39.17499999999998</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K269" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9831,14 +9851,22 @@
         <v>39.13999999999999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K270" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9866,14 +9894,22 @@
         <v>39.11166666666665</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>38</v>
+      </c>
+      <c r="K271" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9901,14 +9937,22 @@
         <v>39.07999999999998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="K272" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9936,14 +9980,22 @@
         <v>39.05166666666665</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9971,14 +10023,22 @@
         <v>39.03333333333332</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="K274" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10006,14 +10066,22 @@
         <v>39.00833333333332</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="K275" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10047,8 +10115,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10082,8 +10156,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10117,8 +10197,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10152,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10187,8 +10279,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +10361,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10292,8 +10402,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10327,8 +10443,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10362,8 +10484,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +10525,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +10566,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +10607,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10502,8 +10648,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +10689,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +10730,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10607,8 +10771,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10642,8 +10812,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10677,8 +10853,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10712,8 +10894,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10747,8 +10935,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10782,8 +10976,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10817,8 +11017,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11058,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10887,8 +11099,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10922,8 +11140,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10957,8 +11181,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +11222,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11263,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11062,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11097,8 +11345,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11132,8 +11386,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11167,8 +11427,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11196,18 +11462,18 @@
         <v>37.96833333333332</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M309" t="n">
@@ -11237,15 +11503,15 @@
         <v>37.94166666666665</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11284,7 +11550,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11317,15 +11585,15 @@
         <v>37.89666666666665</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11358,15 +11626,15 @@
         <v>37.87333333333331</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11399,15 +11667,15 @@
         <v>37.86499999999998</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11446,7 +11714,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11479,15 +11749,15 @@
         <v>37.83166666666664</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11520,15 +11790,15 @@
         <v>37.81833333333331</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11561,15 +11831,15 @@
         <v>37.80333333333332</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11602,15 +11872,15 @@
         <v>37.79333333333332</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11643,15 +11913,15 @@
         <v>37.77999999999999</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11684,15 +11954,15 @@
         <v>37.77333333333333</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11725,15 +11995,15 @@
         <v>37.76833333333333</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11766,15 +12036,15 @@
         <v>37.765</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11807,15 +12077,15 @@
         <v>37.76166666666667</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11848,15 +12118,15 @@
         <v>37.75833333333334</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11889,15 +12159,15 @@
         <v>37.75333333333334</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11930,15 +12200,15 @@
         <v>37.74500000000001</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11971,15 +12241,15 @@
         <v>37.74000000000002</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12012,15 +12282,15 @@
         <v>37.73500000000002</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12053,15 +12323,15 @@
         <v>37.72666666666669</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12094,15 +12364,15 @@
         <v>37.71333333333336</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12135,15 +12405,15 @@
         <v>37.69833333333336</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12176,15 +12446,15 @@
         <v>37.68166666666669</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12217,15 +12487,15 @@
         <v>37.66333333333336</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12258,15 +12528,15 @@
         <v>37.64666666666669</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12299,15 +12569,15 @@
         <v>37.62666666666669</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12340,15 +12610,15 @@
         <v>37.60833333333336</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12381,15 +12651,15 @@
         <v>37.59333333333336</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12422,15 +12692,15 @@
         <v>37.57333333333336</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12463,15 +12733,15 @@
         <v>37.55833333333336</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12504,15 +12774,15 @@
         <v>37.56333333333336</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12545,15 +12815,15 @@
         <v>37.55333333333336</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>38</v>
-      </c>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12586,15 +12856,15 @@
         <v>37.55833333333336</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12627,15 +12897,15 @@
         <v>37.56000000000002</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12674,7 +12944,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12713,7 +12985,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12752,7 +13026,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12791,7 +13067,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12830,7 +13108,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12869,7 +13149,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,7 +13190,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12947,7 +13231,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12986,7 +13272,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13025,7 +13313,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13064,7 +13354,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13103,7 +13395,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13142,7 +13436,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13181,7 +13477,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13220,7 +13518,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13259,7 +13559,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13298,7 +13600,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13337,7 +13641,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13376,7 +13682,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13415,7 +13723,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13454,7 +13764,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13493,7 +13805,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13532,7 +13846,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13571,7 +13887,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13610,7 +13928,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13649,7 +13969,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13688,7 +14010,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13727,7 +14051,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13766,7 +14092,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13805,7 +14133,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13844,7 +14174,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13883,7 +14215,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13922,7 +14256,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13961,7 +14297,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14000,7 +14338,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14039,7 +14379,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14078,7 +14420,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14117,7 +14461,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14156,7 +14502,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14195,7 +14543,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14234,7 +14584,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14273,7 +14625,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14312,7 +14666,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14351,7 +14707,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14390,7 +14748,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14429,7 +14789,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14468,7 +14830,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14507,7 +14871,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14546,7 +14912,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14585,7 +14953,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14624,7 +14994,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14663,7 +15035,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14702,7 +15076,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14741,7 +15117,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14780,7 +15158,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14819,7 +15199,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14858,7 +15240,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14897,7 +15281,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14936,7 +15322,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14975,7 +15363,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15014,7 +15404,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15053,7 +15445,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15092,7 +15486,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15131,7 +15527,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15170,7 +15568,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15209,7 +15609,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15248,7 +15650,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15287,7 +15691,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15326,7 +15732,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15365,7 +15773,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15404,7 +15814,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15443,7 +15855,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15482,7 +15896,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15521,7 +15937,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15560,7 +15978,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15599,7 +16019,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15638,7 +16060,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15677,7 +16101,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15716,7 +16142,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15755,7 +16183,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15794,7 +16224,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15833,7 +16265,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15872,7 +16306,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15911,7 +16347,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15950,7 +16388,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15989,7 +16429,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16028,7 +16470,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16067,7 +16511,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16106,7 +16552,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16145,7 +16593,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16184,7 +16634,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16223,7 +16675,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16262,7 +16716,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16301,7 +16757,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16340,7 +16798,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16379,7 +16839,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16418,7 +16880,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16457,7 +16921,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16496,7 +16962,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16535,7 +17003,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16574,7 +17044,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16613,7 +17085,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16652,7 +17126,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16691,7 +17167,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16730,7 +17208,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16769,7 +17249,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16808,7 +17290,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16847,7 +17331,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16886,7 +17372,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16925,7 +17413,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16964,13 +17454,17 @@
         <v>1</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>37.7</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr"/>
+      <c r="M455" t="n">
+        <v>1.069270557029178</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-17 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>72154.86130435839</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>72131.94470435839</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>110302.9301043584</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>110302.9301043584</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>106155.9439043584</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>172519.3322303222</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>159009.3322303222</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>181903.3438716707</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>204266.2173716707</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>265813.6027716707</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>247773.2191716707</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>219037.7127716707</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>212015.3248716707</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>224616.0621716706</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>266399.7852716706</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>260715.2390716706</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>419747.9831716706</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>418993.7488716706</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>514911.8525716705</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>621946.9519716706</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>610736.9519716706</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>610746.9519716706</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>602311.5924716706</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>479406.2524716706</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>485891.1087716706</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>410308.8665716706</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>410308.8665716706</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>393950.8665716706</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>393950.8665716706</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>393950.8665716706</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>452781.8200716706</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>452791.8200716706</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>590408.7957716705</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>590408.7957716705</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>556070.8495716706</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>559461.7082192897</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>714770.3000573511</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>713662.2172573511</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>709524.3511573512</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>721304.858118817</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>743767.8584065238</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>673767.8584065238</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>347384.0221065239</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>347384.0221065239</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>347384.0221065239</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>363594.5030065239</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>388536.9490065239</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>388536.9490065239</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>394813.068054143</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>385355.403454143</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>385365.403454143</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>264310.162154143</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>187294.990054143</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>193133.391454143</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>127547.5540321918</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>127557.5540321918</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>107519.4603321918</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>112789.7598321918</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>112789.7598321918</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>112789.7598321918</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-96638.01626780823</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-83450.32226780822</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-91725.52466780822</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-71925.52466780822</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-71925.52466780822</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-170631.0423678082</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-170631.0423678082</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-171881.3524678082</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-171881.3524678082</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-197193.0812678082</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-227539.2994678082</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-218127.9942678082</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-229506.0060678082</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-222146.6924678082</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -12001,10 +12001,14 @@
         <v>-838093.5054678079</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="J352" t="n">
+        <v>37.3</v>
+      </c>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
@@ -12034,11 +12038,19 @@
         <v>-830280.9791678078</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J353" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12082,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,7 +12118,7 @@
         <v>-796429.2706678079</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>37.5</v>
@@ -12710,10 +12728,14 @@
         <v>-913333.1360678079</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="J373" t="n">
+        <v>37.2</v>
+      </c>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
@@ -12746,8 +12768,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12776,11 +12804,19 @@
         <v>-915965.5542678079</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="J375" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12842,7 +12878,7 @@
         <v>-952015.8224678079</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>37.4</v>
@@ -12879,7 +12915,7 @@
         <v>-944960.8481678079</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>37.3</v>
@@ -12920,7 +12956,7 @@
         <v>-949939.6681678079</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>37.4</v>
@@ -12961,7 +12997,7 @@
         <v>-928585.2296678078</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>37.3</v>
@@ -13002,9 +13038,11 @@
         <v>-986535.9333678078</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J381" t="n">
         <v>37.4</v>
       </c>
@@ -13041,7 +13079,7 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>37.3</v>
@@ -13082,7 +13120,7 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>37.4</v>
@@ -13123,11 +13161,9 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
         <v>37.4</v>
       </c>
@@ -13164,11 +13200,9 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>37.4</v>
       </c>
@@ -13205,11 +13239,9 @@
         <v>-978006.4433678078</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>37.4</v>
       </c>
@@ -13246,11 +13278,9 @@
         <v>-965674.1038678078</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
         <v>37.4</v>
       </c>
@@ -13287,11 +13317,9 @@
         <v>-965674.1038678078</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
         <v>37.4</v>
       </c>
@@ -13328,7 +13356,7 @@
         <v>-963674.1038678078</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>37.4</v>
@@ -13369,9 +13397,11 @@
         <v>-964891.2681678077</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J390" t="n">
         <v>37.4</v>
       </c>
@@ -13408,9 +13438,11 @@
         <v>-968206.3326678077</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J391" t="n">
         <v>37.4</v>
       </c>
@@ -13447,11 +13479,9 @@
         <v>-965287.7586678077</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>37.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>37.4</v>
       </c>
@@ -13488,7 +13518,7 @@
         <v>-963787.7586678077</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>37.3</v>
@@ -13529,11 +13559,9 @@
         <v>-963787.7586678077</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>37.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>37.4</v>
       </c>
@@ -13570,11 +13598,9 @@
         <v>-963787.7586678077</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>37.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
         <v>37.4</v>
       </c>
@@ -13728,7 +13754,7 @@
         <v>-996364.7228678077</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>37.6</v>
@@ -13769,11 +13795,9 @@
         <v>-992704.8919678078</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>37.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
         <v>37.4</v>
       </c>
@@ -13810,11 +13834,9 @@
         <v>-993673.0214678078</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>38.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
         <v>37.4</v>
       </c>
@@ -13851,11 +13873,9 @@
         <v>-993663.0214678078</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
         <v>37.4</v>
       </c>
@@ -15296,11 +15316,9 @@
         <v>-974450.3750678079</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
         <v>37.4</v>
       </c>
@@ -18630,6 +18648,6 @@
       <c r="M524" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-17 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>62132.70830435839</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>7527.069904358388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>69154.86130435839</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>72154.86130435839</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>72131.94470435839</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>110292.9301043584</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>204266.2173716707</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>265813.6027716707</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>247773.2191716707</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>219037.7127716707</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>212015.3248716707</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>224616.0621716706</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>266399.7852716706</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>260715.2390716706</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>419747.9831716706</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>418993.7488716706</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>514911.8525716705</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>621946.9519716706</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>610736.9519716706</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>610746.9519716706</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>602311.5924716706</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>479406.2524716706</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>485891.1087716706</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>410308.8665716706</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>410308.8665716706</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>393950.8665716706</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>393950.8665716706</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>393950.8665716706</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>452781.8200716706</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>452791.8200716706</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>590408.7957716705</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>590408.7957716705</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>556070.8495716706</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>559461.7082192897</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>714770.3000573511</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>713662.2172573511</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>709524.3511573512</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>721304.858118817</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>350403.6307065239</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>347384.0221065239</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>347384.0221065239</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>347384.0221065239</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>363594.5030065239</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>363748.9490065239</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>388536.9490065239</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>388536.9490065239</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>394813.068054143</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>385355.403454143</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>385365.403454143</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>264310.162154143</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>372638.053154143</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>187294.990054143</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>193133.391454143</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>129047.5540321918</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>127547.5540321918</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>127557.5540321918</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>107519.4603321918</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>112789.7598321918</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>112789.7598321918</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>112789.7598321918</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-96638.01626780823</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-83450.32226780822</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-91725.52466780822</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-71925.52466780822</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-71925.52466780822</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-170631.0423678082</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-170631.0423678082</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-171881.3524678082</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-171881.3524678082</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-197193.0812678082</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -11110,10 +11110,14 @@
         <v>-622775.8678678081</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="J325" t="n">
+        <v>37.6</v>
+      </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
@@ -11143,11 +11147,19 @@
         <v>-618460.3273678081</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="J326" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11191,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11227,19 @@
         <v>-620279.8817678081</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="J328" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11268,19 @@
         <v>-620029.8279678081</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="J329" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11309,19 @@
         <v>-562192.4937678081</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>38</v>
+      </c>
+      <c r="J330" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11353,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11392,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11431,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11470,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +11509,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +11548,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +11587,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +11626,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11665,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +11704,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +11743,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +11782,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +11821,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +11860,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +11899,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +11938,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +11977,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12016,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12055,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12094,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12133,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,15 +12169,17 @@
         <v>-838093.5054678079</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K352" t="inlineStr"/>
+        <v>37.6</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,17 +12208,15 @@
         <v>-830280.9791678078</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>37.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L353" t="n">
@@ -12083,11 +12251,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L354" t="n">
@@ -12118,15 +12286,17 @@
         <v>-796429.2706678079</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>37.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="K355" t="inlineStr"/>
+        <v>37.6</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12159,11 +12329,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L356" t="n">
@@ -12198,11 +12368,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L357" t="n">
@@ -12236,8 +12406,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12269,8 +12445,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12302,8 +12484,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12335,8 +12523,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12368,8 +12562,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12401,8 +12601,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12434,8 +12640,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12467,8 +12679,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12500,8 +12718,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12533,8 +12757,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12566,8 +12796,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12599,8 +12835,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12632,8 +12874,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12665,8 +12913,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12698,8 +12952,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12728,15 +12988,17 @@
         <v>-913333.1360678079</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>37.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="K373" t="inlineStr"/>
+        <v>37.6</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12769,11 +13031,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>37.2</v>
+        <v>37.6</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L374" t="n">
@@ -12804,17 +13066,15 @@
         <v>-915965.5542678079</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>37.2</v>
+        <v>37.6</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -12848,8 +13108,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12878,15 +13144,17 @@
         <v>-952015.8224678079</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K377" t="inlineStr"/>
+        <v>37.6</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12915,17 +13183,15 @@
         <v>-944960.8481678079</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -12956,17 +13222,15 @@
         <v>-949939.6681678079</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -12997,13 +13261,11 @@
         <v>-928585.2296678078</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13038,13 +13300,11 @@
         <v>-986535.9333678078</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13079,13 +13339,11 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13120,13 +13378,11 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13165,7 +13421,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13200,11 +13456,13 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J385" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13243,7 +13501,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13282,7 +13540,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13321,7 +13579,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13356,13 +13614,11 @@
         <v>-963674.1038678078</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13397,13 +13653,11 @@
         <v>-964891.2681678077</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>37.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13438,13 +13692,11 @@
         <v>-968206.3326678077</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13479,11 +13731,13 @@
         <v>-965287.7586678077</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>37.2</v>
+      </c>
       <c r="J392" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13524,7 +13778,7 @@
         <v>37.3</v>
       </c>
       <c r="J393" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13559,11 +13813,13 @@
         <v>-963787.7586678077</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J394" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13598,11 +13854,13 @@
         <v>-963787.7586678077</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J395" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13637,11 +13895,13 @@
         <v>-1017971.045267808</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J396" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13676,11 +13936,13 @@
         <v>-1016364.722867808</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>37.3</v>
+      </c>
       <c r="J397" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13715,11 +13977,13 @@
         <v>-996364.7228678077</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J398" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13760,7 +14024,7 @@
         <v>37.6</v>
       </c>
       <c r="J399" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13795,11 +14059,13 @@
         <v>-992704.8919678078</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>37.6</v>
+      </c>
       <c r="J400" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13834,11 +14100,13 @@
         <v>-993673.0214678078</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>38.3</v>
+      </c>
       <c r="J401" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13873,11 +14141,13 @@
         <v>-993663.0214678078</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>38</v>
+      </c>
       <c r="J402" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13916,7 +14186,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -13955,7 +14225,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -13994,7 +14264,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14033,7 +14303,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14072,7 +14342,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14111,7 +14381,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14150,7 +14420,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14189,7 +14459,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14228,7 +14498,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14267,7 +14537,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14306,7 +14576,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14345,7 +14615,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14384,7 +14654,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14423,7 +14693,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14462,7 +14732,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14501,7 +14771,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14540,7 +14810,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14579,7 +14849,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14618,7 +14888,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14657,7 +14927,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14696,7 +14966,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14735,7 +15005,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14774,7 +15044,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14813,7 +15083,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14852,7 +15122,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14891,7 +15161,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14930,7 +15200,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14969,7 +15239,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15008,7 +15278,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15047,7 +15317,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15082,19 +15352,19 @@
         <v>-933042.5803678079</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L433" t="n">
-        <v>1</v>
+        <v>1.021595744680851</v>
       </c>
       <c r="M433" t="inlineStr"/>
     </row>
@@ -15124,14 +15394,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15163,14 +15427,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15199,17 +15457,11 @@
         <v>-932418.6442678079</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15238,17 +15490,11 @@
         <v>-936645.7976678079</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15280,14 +15526,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15319,14 +15559,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15358,14 +15592,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15397,14 +15625,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15436,14 +15658,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15475,14 +15691,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15514,14 +15724,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15553,14 +15757,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15592,14 +15790,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15631,14 +15823,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15670,14 +15856,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15709,14 +15889,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15748,14 +15922,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15787,14 +15955,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15826,14 +15988,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15865,14 +16021,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15904,14 +16054,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15943,14 +16087,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15982,14 +16120,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16021,14 +16153,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16060,14 +16186,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16099,14 +16219,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16138,14 +16252,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16177,14 +16285,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16216,14 +16318,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16255,14 +16351,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16294,14 +16384,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16333,14 +16417,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16372,14 +16450,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16411,14 +16483,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16450,14 +16516,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16489,14 +16549,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16528,14 +16582,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16567,14 +16615,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16606,14 +16648,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16645,14 +16681,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16684,14 +16714,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16723,14 +16747,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16762,14 +16780,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16801,14 +16813,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16840,14 +16846,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16879,14 +16879,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16918,14 +16912,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16957,14 +16945,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16996,14 +16978,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17035,14 +17011,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17074,14 +17044,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17113,14 +17077,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17152,14 +17110,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17191,14 +17143,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17230,14 +17176,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17269,14 +17209,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17308,14 +17242,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17347,14 +17275,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17386,14 +17308,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17425,14 +17341,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17464,14 +17374,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17503,14 +17407,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17542,14 +17440,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17581,14 +17473,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17620,14 +17506,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17659,14 +17539,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17698,14 +17572,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17737,14 +17605,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17776,14 +17638,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17815,14 +17671,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17854,14 +17704,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17893,14 +17737,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17932,14 +17770,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17971,14 +17803,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18010,14 +17836,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18049,14 +17869,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18088,14 +17902,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18127,14 +17935,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18163,17 +17965,11 @@
         <v>-848517.9250741856</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18202,17 +17998,11 @@
         <v>-878059.0032741856</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18241,17 +18031,11 @@
         <v>-747213.8943653126</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18280,17 +18064,11 @@
         <v>-988526.1078653126</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18319,17 +18097,11 @@
         <v>-1098250.134465313</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18358,17 +18130,11 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18397,17 +18163,11 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18436,17 +18196,11 @@
         <v>-1072187.081565313</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18475,17 +18229,11 @@
         <v>-1124195.901365313</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18514,17 +18262,11 @@
         <v>-1177345.195165313</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18556,14 +18298,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18592,17 +18328,11 @@
         <v>-1175115.236765313</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18634,20 +18364,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
       <c r="M524" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-17 BackTest LAMB.xlsx
@@ -616,7 +616,7 @@
         <v>62132.70830435839</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>7527.069904358388</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>69204.86130435839</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>69154.86130435839</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>72154.86130435839</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>72131.94470435839</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>110292.9301043584</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>248105.2909716707</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>204266.2173716707</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>265813.6027716707</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>247773.2191716707</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>219037.7127716707</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>212015.3248716707</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>258473.6058716706</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>283185.3282716706</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>225126.0621716706</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>224616.0621716706</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>266399.7852716706</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>266389.7852716706</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>260715.2390716706</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>421108.2320716706</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>421138.2320716706</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>419747.9831716706</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>419993.7488716706</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>418993.7488716706</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>514911.8525716705</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>498009.1593716706</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>455279.7059716706</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>621946.9519716706</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>610736.9519716706</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>610746.9519716706</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>602311.5924716706</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>479406.2524716706</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>485891.1087716706</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>422418.1584716706</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>590665.7354716705</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>590408.7957716705</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>624002.3671716705</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>617538.3910716706</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>626364.5430716706</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>556614.0769716706</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>656709.0367573511</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>714770.3000573511</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>713662.2172573511</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>705584.8857573512</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>709524.3511573512</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>658819.0668573512</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>668419.8287573513</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>665255.7050573513</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>661260.4339573513</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>703776.9394533323</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>692290.6804533324</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>698899.2053533323</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>696899.2053533323</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>766341.271818817</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>735238.002418817</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>715794.858118817</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>721294.858118817</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>721304.858118817</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>745237.3204065239</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>743767.8584065238</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>673767.8584065238</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>674496.8876065238</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>674506.8876065238</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>641048.6103065239</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>520535.0344065239</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>521266.3787065239</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>521313.5557065239</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>521313.5557065239</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>363728.9490065239</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>385365.403454143</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -11110,14 +11110,10 @@
         <v>-622775.8678678081</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="J325" t="n">
-        <v>37.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
@@ -11147,2248 +11143,1910 @@
         <v>-618460.3273678081</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C327" t="n">
         <v>37.7</v>
       </c>
-      <c r="J326" t="n">
+      <c r="D327" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E327" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1819.5544</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-620279.8817678081</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C328" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D328" t="n">
+        <v>38</v>
+      </c>
+      <c r="E328" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1029.7698</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-620279.8817678081</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>38</v>
+      </c>
+      <c r="D329" t="n">
+        <v>38</v>
+      </c>
+      <c r="E329" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F329" t="n">
+        <v>250.0538</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-620029.8279678081</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C330" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D330" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E330" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F330" t="n">
+        <v>57837.3342</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-562192.4937678081</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C331" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E331" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F331" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-572192.4937678081</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C332" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D332" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E332" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F332" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-565692.4937678081</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C333" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D333" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E333" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F333" t="n">
+        <v>13888.6975</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-551803.7962678081</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C334" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D334" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E334" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1300.3385</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-553104.134767808</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C335" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="D335" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E335" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4801.491</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-548302.643767808</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C336" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D336" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E336" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F336" t="n">
+        <v>10</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-548312.643767808</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C337" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="D337" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E337" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F337" t="n">
+        <v>10</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-548312.643767808</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C338" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D338" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E338" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F338" t="n">
+        <v>10</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-548302.643767808</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C339" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D339" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E339" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F339" t="n">
+        <v>14</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-548316.643767808</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="C340" t="n">
+        <v>38</v>
+      </c>
+      <c r="D340" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E340" t="n">
+        <v>38</v>
+      </c>
+      <c r="F340" t="n">
+        <v>5976.9147</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-554293.5584678079</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C341" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D341" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="E341" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F341" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-552293.5584678079</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C342" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D342" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1016.0928</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-553309.6512678079</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C343" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D343" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E343" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F343" t="n">
+        <v>6890.533</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-560200.184267808</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C344" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D344" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E344" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F344" t="n">
+        <v>252956.8868</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-813157.071067808</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C345" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D345" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E345" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F345" t="n">
+        <v>16854.2273</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-796302.8437678079</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>38</v>
+      </c>
+      <c r="C346" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D346" t="n">
+        <v>38</v>
+      </c>
+      <c r="E346" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F346" t="n">
+        <v>8708.887500000001</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-805011.7312678079</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>38</v>
+      </c>
+      <c r="C347" t="n">
+        <v>38</v>
+      </c>
+      <c r="D347" t="n">
+        <v>38</v>
+      </c>
+      <c r="E347" t="n">
+        <v>38</v>
+      </c>
+      <c r="F347" t="n">
+        <v>10</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-805001.7312678079</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
         <v>37.6</v>
       </c>
-      <c r="K326" t="inlineStr">
+      <c r="C348" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D348" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E348" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1894.9924</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-806896.7236678079</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C349" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D349" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E349" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F349" t="n">
+        <v>767.3134</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-806129.4102678079</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C350" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D350" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E350" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F350" t="n">
+        <v>10136.0265</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-816265.4367678079</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C351" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D351" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E351" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F351" t="n">
+        <v>22828.0687</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-839093.5054678079</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C352" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D352" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E352" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F352" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-838093.5054678079</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C353" t="n">
+        <v>38</v>
+      </c>
+      <c r="D353" t="n">
+        <v>38</v>
+      </c>
+      <c r="E353" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F353" t="n">
+        <v>7812.5263</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-830280.9791678078</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C354" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D354" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E354" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1135.0065</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-831415.9856678079</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C355" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D355" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E355" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F355" t="n">
+        <v>34986.715</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-796429.2706678079</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C356" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D356" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E356" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1000.1161</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-797429.3867678079</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C357" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D357" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E357" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F357" t="n">
+        <v>97</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-797429.3867678079</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C358" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E358" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F358" t="n">
+        <v>11353.0575</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-808782.4442678079</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>38</v>
+      </c>
+      <c r="C359" t="n">
+        <v>38</v>
+      </c>
+      <c r="D359" t="n">
+        <v>38</v>
+      </c>
+      <c r="E359" t="n">
+        <v>38</v>
+      </c>
+      <c r="F359" t="n">
+        <v>10</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-808772.4442678079</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C360" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D360" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E360" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F360" t="n">
+        <v>1601.9929</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-810374.4371678078</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C361" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D361" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E361" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F361" t="n">
+        <v>5686.6759</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-816061.1130678079</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C362" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D362" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E362" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-816061.1130678079</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C363" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D363" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E363" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F363" t="n">
+        <v>46.1944</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-816061.1130678079</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C364" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D364" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E364" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F364" t="n">
+        <v>12463.7064</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-828524.8194678079</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C365" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D365" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E365" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F365" t="n">
+        <v>41343.7707</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-828524.8194678079</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C366" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D366" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E366" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F366" t="n">
+        <v>9708.596600000001</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-828524.8194678079</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C367" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D367" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E367" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F367" t="n">
+        <v>7792.995</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-828524.8194678079</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C368" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D368" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E368" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F368" t="n">
+        <v>74368.3164</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-902893.1358678079</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C369" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D369" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E369" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F369" t="n">
+        <v>21.8201</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-902871.3157678079</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C370" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D370" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E370" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F370" t="n">
+        <v>774.1787</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-903645.4944678079</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C371" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D371" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E371" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F371" t="n">
+        <v>9709.4617</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-913354.9561678079</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C372" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D372" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E372" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F372" t="n">
+        <v>103730.6115</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-913354.9561678079</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C373" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D373" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E373" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F373" t="n">
+        <v>21.8201</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-913333.1360678079</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C374" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E374" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F374" t="n">
+        <v>58000</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-971333.1360678079</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C375" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D375" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E375" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F375" t="n">
+        <v>55367.5818</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-915965.5542678079</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C376" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D376" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E376" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F376" t="n">
+        <v>16806.2142</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-915965.5542678079</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C377" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D377" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E377" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F377" t="n">
+        <v>36050.2682</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-952015.8224678079</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C378" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D378" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E378" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F378" t="n">
+        <v>7054.9743</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-944960.8481678079</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C379" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D379" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E379" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F379" t="n">
+        <v>4978.82</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-949939.6681678079</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C380" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D380" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E380" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F380" t="n">
+        <v>21354.4385</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-928585.2296678078</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C381" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D381" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E381" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F381" t="n">
+        <v>57950.7037</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-986535.9333678078</v>
+      </c>
+      <c r="H381" t="n">
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="J381" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C382" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D382" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E382" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>11484</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-975051.9333678078</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K382" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C327" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D327" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E327" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F327" t="n">
-        <v>1819.5544</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-620279.8817678081</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C328" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D328" t="n">
-        <v>38</v>
-      </c>
-      <c r="E328" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1029.7698</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-620279.8817678081</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="J328" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K328" t="inlineStr">
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C383" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D383" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E383" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F383" t="n">
+        <v>2834.9955</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-975051.9333678078</v>
+      </c>
+      <c r="H383" t="n">
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="J383" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K383" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C329" t="n">
-        <v>38</v>
-      </c>
-      <c r="D329" t="n">
-        <v>38</v>
-      </c>
-      <c r="E329" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F329" t="n">
-        <v>250.0538</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-620029.8279678081</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="J329" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C330" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D330" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E330" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F330" t="n">
-        <v>57837.3342</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-562192.4937678081</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>38</v>
-      </c>
-      <c r="J330" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C331" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D331" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E331" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F331" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-572192.4937678081</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C332" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="D332" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="E332" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F332" t="n">
-        <v>6500</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-565692.4937678081</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="C333" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="D333" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="E333" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F333" t="n">
-        <v>13888.6975</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-551803.7962678081</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C334" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D334" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E334" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F334" t="n">
-        <v>1300.3385</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-553104.134767808</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="C335" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="D335" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="E335" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="F335" t="n">
-        <v>4801.491</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-548302.643767808</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C336" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="D336" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E336" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F336" t="n">
-        <v>10</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-548312.643767808</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C337" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="D337" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E337" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F337" t="n">
-        <v>10</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-548312.643767808</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="C338" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="D338" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="E338" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="F338" t="n">
-        <v>10</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-548302.643767808</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C339" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D339" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E339" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F339" t="n">
-        <v>14</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-548316.643767808</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="C340" t="n">
-        <v>38</v>
-      </c>
-      <c r="D340" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="E340" t="n">
-        <v>38</v>
-      </c>
-      <c r="F340" t="n">
-        <v>5976.9147</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-554293.5584678079</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C341" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="D341" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="E341" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F341" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-552293.5584678079</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C342" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D342" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E342" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F342" t="n">
-        <v>1016.0928</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-553309.6512678079</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="C343" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D343" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="E343" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F343" t="n">
-        <v>6890.533</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-560200.184267808</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C344" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D344" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E344" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F344" t="n">
-        <v>252956.8868</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-813157.071067808</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C345" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D345" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E345" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F345" t="n">
-        <v>16854.2273</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-796302.8437678079</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>38</v>
-      </c>
-      <c r="C346" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D346" t="n">
-        <v>38</v>
-      </c>
-      <c r="E346" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F346" t="n">
-        <v>8708.887500000001</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-805011.7312678079</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>38</v>
-      </c>
-      <c r="C347" t="n">
-        <v>38</v>
-      </c>
-      <c r="D347" t="n">
-        <v>38</v>
-      </c>
-      <c r="E347" t="n">
-        <v>38</v>
-      </c>
-      <c r="F347" t="n">
-        <v>10</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-805001.7312678079</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C348" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D348" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E348" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F348" t="n">
-        <v>1894.9924</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-806896.7236678079</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C349" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D349" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E349" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F349" t="n">
-        <v>767.3134</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-806129.4102678079</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C350" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D350" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E350" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F350" t="n">
-        <v>10136.0265</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-816265.4367678079</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C351" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D351" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E351" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F351" t="n">
-        <v>22828.0687</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-839093.5054678079</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C352" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D352" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E352" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F352" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-838093.5054678079</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C353" t="n">
-        <v>38</v>
-      </c>
-      <c r="D353" t="n">
-        <v>38</v>
-      </c>
-      <c r="E353" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F353" t="n">
-        <v>7812.5263</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-830280.9791678078</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C354" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D354" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E354" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F354" t="n">
-        <v>1135.0065</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-831415.9856678079</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C355" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D355" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E355" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F355" t="n">
-        <v>34986.715</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-796429.2706678079</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C356" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D356" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E356" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F356" t="n">
-        <v>1000.1161</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-797429.3867678079</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C357" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D357" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E357" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F357" t="n">
-        <v>97</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-797429.3867678079</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C358" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D358" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E358" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F358" t="n">
-        <v>11353.0575</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-808782.4442678079</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>38</v>
-      </c>
-      <c r="C359" t="n">
-        <v>38</v>
-      </c>
-      <c r="D359" t="n">
-        <v>38</v>
-      </c>
-      <c r="E359" t="n">
-        <v>38</v>
-      </c>
-      <c r="F359" t="n">
-        <v>10</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-808772.4442678079</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C360" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D360" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E360" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F360" t="n">
-        <v>1601.9929</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-810374.4371678078</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C361" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D361" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E361" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F361" t="n">
-        <v>5686.6759</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-816061.1130678079</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C362" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D362" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E362" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F362" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-816061.1130678079</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C363" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D363" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E363" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F363" t="n">
-        <v>46.1944</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-816061.1130678079</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C364" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D364" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E364" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F364" t="n">
-        <v>12463.7064</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-828524.8194678079</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C365" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D365" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E365" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F365" t="n">
-        <v>41343.7707</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-828524.8194678079</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C366" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D366" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E366" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F366" t="n">
-        <v>9708.596600000001</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-828524.8194678079</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C367" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="D367" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E367" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F367" t="n">
-        <v>7792.995</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-828524.8194678079</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C368" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D368" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E368" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F368" t="n">
-        <v>74368.3164</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-902893.1358678079</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C369" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D369" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E369" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F369" t="n">
-        <v>21.8201</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-902871.3157678079</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C370" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D370" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E370" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F370" t="n">
-        <v>774.1787</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-903645.4944678079</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C371" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D371" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E371" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F371" t="n">
-        <v>9709.4617</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-913354.9561678079</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C372" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D372" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E372" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F372" t="n">
-        <v>103730.6115</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-913354.9561678079</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C373" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D373" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E373" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F373" t="n">
-        <v>21.8201</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-913333.1360678079</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C374" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D374" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E374" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F374" t="n">
-        <v>58000</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-971333.1360678079</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C375" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D375" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E375" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F375" t="n">
-        <v>55367.5818</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-915965.5542678079</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C376" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D376" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E376" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F376" t="n">
-        <v>16806.2142</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-915965.5542678079</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C377" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D377" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E377" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F377" t="n">
-        <v>36050.2682</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-952015.8224678079</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C378" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D378" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E378" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F378" t="n">
-        <v>7054.9743</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-944960.8481678079</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C379" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D379" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E379" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F379" t="n">
-        <v>4978.82</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-949939.6681678079</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C380" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D380" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E380" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F380" t="n">
-        <v>21354.4385</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-928585.2296678078</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C381" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D381" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="E381" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F381" t="n">
-        <v>57950.7037</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-986535.9333678078</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C382" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D382" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E382" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F382" t="n">
-        <v>11484</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-975051.9333678078</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C383" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D383" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E383" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F383" t="n">
-        <v>2834.9955</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-975051.9333678078</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13421,7 +13079,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13456,13 +13114,11 @@
         <v>-975051.9333678078</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>37.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13501,7 +13157,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13540,7 +13196,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13575,11 +13231,13 @@
         <v>-965674.1038678078</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J388" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13614,11 +13272,13 @@
         <v>-963674.1038678078</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J389" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13653,11 +13313,13 @@
         <v>-964891.2681678077</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J390" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13692,11 +13354,13 @@
         <v>-968206.3326678077</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>37.4</v>
+      </c>
       <c r="J391" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13737,7 +13401,7 @@
         <v>37.2</v>
       </c>
       <c r="J392" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13778,7 +13442,7 @@
         <v>37.3</v>
       </c>
       <c r="J393" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13819,7 +13483,7 @@
         <v>37.5</v>
       </c>
       <c r="J394" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13860,7 +13524,7 @@
         <v>37.5</v>
       </c>
       <c r="J395" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13901,7 +13565,7 @@
         <v>37.5</v>
       </c>
       <c r="J396" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13942,7 +13606,7 @@
         <v>37.3</v>
       </c>
       <c r="J397" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13983,7 +13647,7 @@
         <v>37.5</v>
       </c>
       <c r="J398" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14024,7 +13688,7 @@
         <v>37.6</v>
       </c>
       <c r="J399" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14065,7 +13729,7 @@
         <v>37.6</v>
       </c>
       <c r="J400" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14106,7 +13770,7 @@
         <v>38.3</v>
       </c>
       <c r="J401" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14147,7 +13811,7 @@
         <v>38</v>
       </c>
       <c r="J402" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14186,7 +13850,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14225,7 +13889,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14264,7 +13928,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14303,7 +13967,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14342,7 +14006,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14381,7 +14045,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14420,7 +14084,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14459,7 +14123,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14498,7 +14162,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14537,7 +14201,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14576,7 +14240,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14615,7 +14279,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14654,7 +14318,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14693,7 +14357,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14732,7 +14396,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14771,7 +14435,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14810,7 +14474,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14849,7 +14513,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14888,7 +14552,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14927,7 +14591,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14966,7 +14630,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15005,7 +14669,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15044,7 +14708,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15083,7 +14747,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15122,7 +14786,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15161,7 +14825,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15200,7 +14864,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15239,7 +14903,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15278,7 +14942,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15317,7 +14981,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15352,19 +15016,19 @@
         <v>-933042.5803678079</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L433" t="n">
-        <v>1.021595744680851</v>
+        <v>1</v>
       </c>
       <c r="M433" t="inlineStr"/>
     </row>
@@ -15394,8 +15058,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15427,8 +15097,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15457,11 +15133,17 @@
         <v>-932418.6442678079</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15490,11 +15172,17 @@
         <v>-936645.7976678079</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15526,8 +15214,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15559,8 +15253,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15592,8 +15292,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15625,8 +15331,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15658,8 +15370,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15691,8 +15409,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15724,8 +15448,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15757,8 +15487,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15790,8 +15526,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15823,8 +15565,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15856,8 +15604,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15889,8 +15643,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15922,8 +15682,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15955,8 +15721,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15988,8 +15760,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16021,8 +15799,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16054,8 +15838,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16087,8 +15877,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16120,8 +15916,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16153,8 +15955,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16186,8 +15994,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16219,8 +16033,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16252,8 +16072,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16285,8 +16111,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16318,8 +16150,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16351,8 +16189,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16384,8 +16228,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16417,8 +16267,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16450,8 +16306,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16483,8 +16345,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16516,8 +16384,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16549,8 +16423,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16582,8 +16462,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16615,8 +16501,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16648,8 +16540,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16681,8 +16579,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16714,8 +16618,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16747,8 +16657,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16780,8 +16696,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16813,8 +16735,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16846,8 +16774,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16879,8 +16813,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16912,8 +16852,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16945,8 +16891,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16978,8 +16930,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17011,8 +16969,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17044,8 +17008,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17077,8 +17047,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17110,8 +17086,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17143,8 +17125,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17176,8 +17164,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17209,8 +17203,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17242,8 +17242,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17275,8 +17281,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17308,8 +17320,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17341,8 +17359,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17374,8 +17398,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17407,8 +17437,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17440,8 +17476,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17473,8 +17515,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17506,8 +17554,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17539,8 +17593,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17572,8 +17632,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17605,8 +17671,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17638,8 +17710,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17671,8 +17749,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17704,8 +17788,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17737,8 +17827,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17770,8 +17866,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17803,8 +17905,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17836,8 +17944,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17869,8 +17983,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17902,8 +18022,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17935,8 +18061,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17965,11 +18097,17 @@
         <v>-848517.9250741856</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17998,11 +18136,17 @@
         <v>-878059.0032741856</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18031,11 +18175,17 @@
         <v>-747213.8943653126</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18064,11 +18214,17 @@
         <v>-988526.1078653126</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18097,11 +18253,17 @@
         <v>-1098250.134465313</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18130,11 +18292,17 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18163,11 +18331,17 @@
         <v>-1089121.134465313</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18196,11 +18370,17 @@
         <v>-1072187.081565313</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18229,11 +18409,17 @@
         <v>-1124195.901365313</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18262,11 +18448,17 @@
         <v>-1177345.195165313</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18298,8 +18490,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18328,11 +18526,17 @@
         <v>-1175115.236765313</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18364,8 +18568,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
